--- a/PhoenixCI/Excel_Template/40013.xlsx
+++ b/PhoenixCI/Excel_Template/40013.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 風管組業務\B. 資訊需求單\20190502 盤後系統需求\3. 調整template\調整版本\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\需求單\保證金第二階段\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="238" yWindow="50" windowWidth="18895" windowHeight="7939"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18900" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="rpt_future" sheetId="10" r:id="rId1"/>
@@ -956,12 +956,257 @@
   <si>
     <r>
       <rPr>
+        <sz val="14"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>近月份期貨
+契約價格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>□I5F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>現行收取
+結算保證金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>變動幅度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資料日期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結算保證金占契約總值比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>維持保證金占契約總值比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始保證金占契約總值比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本日結算保證金計算(結算保證金 = 期貨指數 × 指數每點價值 × 風險價格係數)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>指數每點價值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>以SMA及MAX計算之保證金變動幅度均</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>未達</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>得調整標準，或雖達得調整標準但進位後金額不變，保證金維持現行收取標準。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>以SMA或MAX計算之保證金變動幅度已達</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>得調整標準，且進位後金額改變，建議事項如「保證金調整審核會議</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>紀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>錄」。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本日結算保證金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>D =A×B×C</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -974,251 +1219,6 @@
       <t>簡單移動平均法-日內變動(MAX)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>近月份期貨
-契約價格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>□I5F</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>現行收取
-結算保證金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>變動幅度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>資料日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2014</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>結算保證金占契約總值比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>維持保證金占契約總值比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始保證金占契約總值比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本日結算保證金計算(結算保證金 = 期貨指數 × 指數每點價值 × 風險價格係數)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>指數每點價值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>以SMA及MAX計算之保證金變動幅度均</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>未達</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 10%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>得調整標準，或雖達得調整標準但進位後金額不變，保證金維持現行收取標準。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>以SMA或MAX計算之保證金變動幅度已達</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 10%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>得調整標準，且進位後金額改變，建議事項如「保證金調整審核會議</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>紀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>錄」。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>本日結算保證金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>D =A×B×C</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1527,7 +1527,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1798,6 +1798,9 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="34" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2174,28 +2177,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScale="75" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="9" customWidth="1"/>
     <col min="3" max="3" width="19" style="9" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="9" customWidth="1"/>
-    <col min="6" max="7" width="19.77734375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="19.77734375" style="32" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="32" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="21.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="9" customWidth="1"/>
+    <col min="6" max="7" width="19.75" style="9" customWidth="1"/>
+    <col min="8" max="8" width="19.75" style="32" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="32" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="32" customWidth="1"/>
     <col min="11" max="11" width="11" style="32" customWidth="1"/>
-    <col min="12" max="13" width="9.77734375" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.75" style="32" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="32"/>
     <col min="15" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="43.85" customHeight="1">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="43.9" customHeight="1">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -2210,14 +2213,14 @@
       <c r="H1" s="97"/>
       <c r="I1" s="42"/>
       <c r="J1" s="96" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1" s="95"/>
       <c r="L1" s="33"/>
       <c r="M1" s="33"/>
       <c r="N1" s="33"/>
     </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" ht="36.35">
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="39">
       <c r="A2" s="5"/>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -2232,13 +2235,13 @@
         <v>5</v>
       </c>
       <c r="F2" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="H2" s="91" t="s">
         <v>59</v>
-      </c>
-      <c r="H2" s="91" t="s">
-        <v>60</v>
       </c>
       <c r="I2" s="46"/>
       <c r="J2" s="46"/>
@@ -2248,7 +2251,7 @@
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
     </row>
-    <row r="3" spans="1:15" ht="30.05" customHeight="1">
+    <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2274,7 +2277,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="5" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B5" s="47"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -2289,7 +2292,7 @@
       <c r="M5" s="36"/>
       <c r="N5" s="36"/>
     </row>
-    <row r="6" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="6" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B6" s="47"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -2304,7 +2307,7 @@
       <c r="M6" s="36"/>
       <c r="N6" s="36"/>
     </row>
-    <row r="7" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="7" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B7" s="47"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -2319,7 +2322,7 @@
       <c r="M7" s="36"/>
       <c r="N7" s="36"/>
     </row>
-    <row r="8" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="8" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B8" s="47"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -2334,7 +2337,7 @@
       <c r="M8" s="36"/>
       <c r="N8" s="36"/>
     </row>
-    <row r="9" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="9" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B9" s="47"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -2349,7 +2352,7 @@
       <c r="M9" s="36"/>
       <c r="N9" s="36"/>
     </row>
-    <row r="10" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="10" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B10" s="47"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -2364,7 +2367,7 @@
       <c r="M10" s="36"/>
       <c r="N10" s="36"/>
     </row>
-    <row r="11" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="11" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B11" s="47"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -2379,7 +2382,7 @@
       <c r="M11" s="36"/>
       <c r="N11" s="36"/>
     </row>
-    <row r="12" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="12" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B12" s="47"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2394,7 +2397,7 @@
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
     </row>
-    <row r="13" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="13" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B13" s="47"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2409,7 +2412,7 @@
       <c r="M13" s="36"/>
       <c r="N13" s="36"/>
     </row>
-    <row r="14" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="14" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B14" s="47"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -2424,7 +2427,7 @@
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
     </row>
-    <row r="15" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="15" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B15" s="47"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2439,7 +2442,7 @@
       <c r="M15" s="36"/>
       <c r="N15" s="36"/>
     </row>
-    <row r="16" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="16" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B16" s="47"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2454,7 +2457,7 @@
       <c r="M16" s="36"/>
       <c r="N16" s="36"/>
     </row>
-    <row r="17" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="17" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B17" s="47"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -2469,7 +2472,7 @@
       <c r="M17" s="36"/>
       <c r="N17" s="36"/>
     </row>
-    <row r="18" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="18" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B18" s="47"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -2484,7 +2487,7 @@
       <c r="M18" s="36"/>
       <c r="N18" s="36"/>
     </row>
-    <row r="19" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="19" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B19" s="47"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -2499,7 +2502,7 @@
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
     </row>
-    <row r="20" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="20" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B20" s="47"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2514,12 +2517,12 @@
       <c r="M20" s="36"/>
       <c r="N20" s="36"/>
     </row>
-    <row r="21" spans="1:15" s="19" customFormat="1" ht="43.55" customHeight="1">
+    <row r="21" spans="1:15" s="19" customFormat="1" ht="43.5" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -2534,7 +2537,7 @@
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
     </row>
-    <row r="22" spans="1:15" ht="26.3" customHeight="1">
+    <row r="22" spans="1:15" ht="26.25" customHeight="1">
       <c r="B22" s="90" t="s">
         <v>49</v>
       </c>
@@ -2545,15 +2548,15 @@
       <c r="G22" s="18"/>
       <c r="H22" s="39"/>
     </row>
-    <row r="23" spans="1:15" ht="36.35">
+    <row r="23" spans="1:15" ht="39">
       <c r="B23" s="43" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>8</v>
@@ -2565,13 +2568,13 @@
         <v>10</v>
       </c>
       <c r="H23" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I23" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="92" t="s">
         <v>55</v>
-      </c>
-      <c r="J23" s="92" t="s">
-        <v>56</v>
       </c>
       <c r="O23" s="32"/>
     </row>
@@ -2587,14 +2590,14 @@
       <c r="G24" s="21"/>
       <c r="H24" s="48"/>
       <c r="I24" s="93"/>
-      <c r="J24" s="94"/>
+      <c r="J24" s="99"/>
       <c r="K24" s="40"/>
       <c r="L24" s="40"/>
       <c r="M24" s="40"/>
       <c r="N24" s="40"/>
       <c r="O24" s="40"/>
     </row>
-    <row r="25" spans="1:15" s="14" customFormat="1" ht="17.55">
+    <row r="25" spans="1:15" s="14" customFormat="1" ht="18.75">
       <c r="B25" s="47"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2609,7 +2612,7 @@
       <c r="M25" s="36"/>
       <c r="N25" s="36"/>
     </row>
-    <row r="26" spans="1:15" s="14" customFormat="1" ht="22.55">
+    <row r="26" spans="1:15" s="14" customFormat="1" ht="22.5" hidden="1" customHeight="1">
       <c r="B26" s="90" t="s">
         <v>50</v>
       </c>
@@ -2626,15 +2629,15 @@
       <c r="M26" s="36"/>
       <c r="N26" s="36"/>
     </row>
-    <row r="27" spans="1:15" s="14" customFormat="1" ht="36.35">
+    <row r="27" spans="1:15" s="14" customFormat="1" ht="36.4" hidden="1" customHeight="1">
       <c r="B27" s="80" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>8</v>
@@ -2646,20 +2649,20 @@
         <v>10</v>
       </c>
       <c r="H27" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I27" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="92" t="s">
         <v>55</v>
-      </c>
-      <c r="J27" s="92" t="s">
-        <v>56</v>
       </c>
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
       <c r="M27" s="36"/>
       <c r="N27" s="36"/>
     </row>
-    <row r="28" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1">
+    <row r="28" spans="1:15" s="14" customFormat="1" ht="31.9" hidden="1" customHeight="1">
       <c r="B28" s="8" t="s">
         <v>7</v>
       </c>
@@ -2676,7 +2679,7 @@
       <c r="M28" s="36"/>
       <c r="N28" s="36"/>
     </row>
-    <row r="29" spans="1:15" s="14" customFormat="1" ht="17.55">
+    <row r="29" spans="1:15" s="14" customFormat="1" ht="18.75">
       <c r="B29" s="47"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -2691,9 +2694,9 @@
       <c r="M29" s="36"/>
       <c r="N29" s="36"/>
     </row>
-    <row r="30" spans="1:15" s="14" customFormat="1" ht="22.55">
+    <row r="30" spans="1:15" s="14" customFormat="1" ht="21">
       <c r="B30" s="90" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -2708,15 +2711,15 @@
       <c r="M30" s="36"/>
       <c r="N30" s="36"/>
     </row>
-    <row r="31" spans="1:15" s="14" customFormat="1" ht="36.35">
+    <row r="31" spans="1:15" s="14" customFormat="1" ht="39">
       <c r="B31" s="80" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>8</v>
@@ -2728,20 +2731,20 @@
         <v>10</v>
       </c>
       <c r="H31" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I31" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="92" t="s">
         <v>55</v>
-      </c>
-      <c r="J31" s="92" t="s">
-        <v>56</v>
       </c>
       <c r="K31" s="37"/>
       <c r="L31" s="37"/>
       <c r="M31" s="36"/>
       <c r="N31" s="36"/>
     </row>
-    <row r="32" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1">
+    <row r="32" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1">
       <c r="B32" s="8" t="s">
         <v>7</v>
       </c>
@@ -2752,13 +2755,13 @@
       <c r="G32" s="21"/>
       <c r="H32" s="48"/>
       <c r="I32" s="93"/>
-      <c r="J32" s="94"/>
+      <c r="J32" s="99"/>
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
       <c r="M32" s="36"/>
       <c r="N32" s="36"/>
     </row>
-    <row r="33" spans="1:18" s="14" customFormat="1" ht="17.55">
+    <row r="33" spans="1:18" s="14" customFormat="1" ht="18.75">
       <c r="B33" s="47"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -2773,7 +2776,7 @@
       <c r="M33" s="36"/>
       <c r="N33" s="36"/>
     </row>
-    <row r="34" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="34" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B34" s="47"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -2788,7 +2791,7 @@
       <c r="M34" s="36"/>
       <c r="N34" s="36"/>
     </row>
-    <row r="35" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="35" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B35" s="47"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -2803,7 +2806,7 @@
       <c r="M35" s="36"/>
       <c r="N35" s="36"/>
     </row>
-    <row r="36" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="36" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B36" s="47"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2818,7 +2821,7 @@
       <c r="M36" s="36"/>
       <c r="N36" s="36"/>
     </row>
-    <row r="37" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="37" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B37" s="47"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -2833,7 +2836,7 @@
       <c r="M37" s="36"/>
       <c r="N37" s="36"/>
     </row>
-    <row r="38" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="38" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B38" s="47"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -2848,7 +2851,7 @@
       <c r="M38" s="36"/>
       <c r="N38" s="36"/>
     </row>
-    <row r="39" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="39" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B39" s="47"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -2863,7 +2866,7 @@
       <c r="M39" s="36"/>
       <c r="N39" s="36"/>
     </row>
-    <row r="40" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="40" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B40" s="47"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -2878,7 +2881,7 @@
       <c r="M40" s="36"/>
       <c r="N40" s="36"/>
     </row>
-    <row r="41" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="41" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B41" s="47"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -2893,7 +2896,7 @@
       <c r="M41" s="36"/>
       <c r="N41" s="36"/>
     </row>
-    <row r="42" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="42" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B42" s="47"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -2908,7 +2911,7 @@
       <c r="M42" s="36"/>
       <c r="N42" s="36"/>
     </row>
-    <row r="43" spans="1:18" ht="26.3" customHeight="1">
+    <row r="43" spans="1:18" ht="26.25" customHeight="1">
       <c r="A43" s="56" t="s">
         <v>48</v>
       </c>
@@ -2932,7 +2935,7 @@
       <c r="Q43" s="54"/>
       <c r="R43" s="54"/>
     </row>
-    <row r="44" spans="1:18" ht="26.3" customHeight="1">
+    <row r="44" spans="1:18" ht="26.25" customHeight="1">
       <c r="A44" s="56"/>
       <c r="B44" s="49"/>
       <c r="C44" s="24"/>
@@ -2954,7 +2957,7 @@
     </row>
     <row r="45" spans="1:18">
       <c r="B45" s="89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
@@ -2971,12 +2974,12 @@
       <c r="Q45" s="54"/>
       <c r="R45" s="54"/>
     </row>
-    <row r="46" spans="1:18" ht="18.2">
+    <row r="46" spans="1:18" ht="19.5">
       <c r="A46" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" s="89" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" s="26"/>
       <c r="D46" s="15"/>
@@ -2997,7 +3000,7 @@
     <row r="47" spans="1:18">
       <c r="A47" s="51"/>
       <c r="B47" s="89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="4"/>
@@ -3007,7 +3010,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="89" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="4"/>
@@ -3057,24 +3060,24 @@
       <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="11" style="58" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="58" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" style="58" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="58" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="58" customWidth="1"/>
-    <col min="6" max="17" width="10.21875" style="58" customWidth="1"/>
-    <col min="18" max="19" width="11.88671875" style="58" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" style="58" customWidth="1"/>
-    <col min="21" max="23" width="10.44140625" style="76" customWidth="1"/>
-    <col min="24" max="24" width="11.109375" style="76" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="58" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="58" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="58" customWidth="1"/>
+    <col min="6" max="17" width="10.25" style="58" customWidth="1"/>
+    <col min="18" max="19" width="11.875" style="58" customWidth="1"/>
+    <col min="20" max="20" width="10.25" style="58" customWidth="1"/>
+    <col min="21" max="23" width="10.5" style="76" customWidth="1"/>
+    <col min="24" max="24" width="11.125" style="76" customWidth="1"/>
     <col min="25" max="27" width="11" style="77" customWidth="1"/>
-    <col min="28" max="31" width="11.109375" style="76" customWidth="1"/>
-    <col min="32" max="33" width="9.33203125" style="78" customWidth="1"/>
-    <col min="34" max="34" width="11.109375" style="78" customWidth="1"/>
-    <col min="35" max="37" width="11.109375" style="79" customWidth="1"/>
-    <col min="38" max="16384" width="8.88671875" style="58"/>
+    <col min="28" max="31" width="11.125" style="76" customWidth="1"/>
+    <col min="32" max="33" width="9.375" style="78" customWidth="1"/>
+    <col min="34" max="34" width="11.125" style="78" customWidth="1"/>
+    <col min="35" max="37" width="11.125" style="79" customWidth="1"/>
+    <col min="38" max="16384" width="8.875" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="42.75" customHeight="1">
@@ -3102,7 +3105,7 @@
       <c r="AJ1" s="98"/>
       <c r="AK1" s="98"/>
     </row>
-    <row r="2" spans="1:37" ht="73.25">
+    <row r="2" spans="1:37" ht="78">
       <c r="A2" s="81" t="s">
         <v>16</v>
       </c>
@@ -4310,7 +4313,7 @@
     <row r="33" spans="2:21">
       <c r="B33" s="87"/>
     </row>
-    <row r="34" spans="2:21">
+    <row r="34" spans="2:21" ht="19.5">
       <c r="U34" s="88" t="s">
         <v>47</v>
       </c>

--- a/PhoenixCI/Excel_Template/40013.xlsx
+++ b/PhoenixCI/Excel_Template/40013.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\需求單\保證金第二階段\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 風管組業務\B. 資訊需求單\20190502 盤後系統需求\3. 調整template\報表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18900" windowHeight="7935"/>
+    <workbookView xWindow="238" yWindow="50" windowWidth="18895" windowHeight="7939" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="rpt_future" sheetId="10" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">rpt_future!$A$1:$J$50</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">fut_3index!$A:$B</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
   <si>
     <r>
       <rPr>
@@ -992,76 +992,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>資料日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2014</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>結算保證金占契約總值比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1206,7 +1136,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1457,10 +1387,11 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="10"/>
-      <name val="細明體"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1520,14 +1451,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1784,28 +1718,35 @@
     <xf numFmtId="177" fontId="34" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="34" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="34" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="34" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
     <cellStyle name="百分比 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2177,28 +2118,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.7"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="9" customWidth="1"/>
     <col min="3" max="3" width="19" style="9" customWidth="1"/>
-    <col min="4" max="4" width="21.25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="9" customWidth="1"/>
-    <col min="6" max="7" width="19.75" style="9" customWidth="1"/>
-    <col min="8" max="8" width="19.75" style="32" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="32" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="32" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="9" customWidth="1"/>
+    <col min="6" max="7" width="19.77734375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" style="32" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" style="32" customWidth="1"/>
     <col min="11" max="11" width="11" style="32" customWidth="1"/>
-    <col min="12" max="13" width="9.75" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.77734375" style="32" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="32"/>
     <col min="15" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="43.9" customHeight="1">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="43.85" customHeight="1">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -2212,15 +2153,13 @@
       <c r="G1" s="97"/>
       <c r="H1" s="97"/>
       <c r="I1" s="42"/>
-      <c r="J1" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="33"/>
       <c r="M1" s="33"/>
       <c r="N1" s="33"/>
     </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" ht="39">
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="36.35">
       <c r="A2" s="5"/>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -2235,13 +2174,13 @@
         <v>5</v>
       </c>
       <c r="F2" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="H2" s="91" t="s">
         <v>58</v>
-      </c>
-      <c r="H2" s="91" t="s">
-        <v>59</v>
       </c>
       <c r="I2" s="46"/>
       <c r="J2" s="46"/>
@@ -2251,7 +2190,7 @@
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
     </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
+    <row r="3" spans="1:15" ht="30.05" customHeight="1">
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2277,7 +2216,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="5" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B5" s="47"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -2292,7 +2231,7 @@
       <c r="M5" s="36"/>
       <c r="N5" s="36"/>
     </row>
-    <row r="6" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="6" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B6" s="47"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -2307,7 +2246,7 @@
       <c r="M6" s="36"/>
       <c r="N6" s="36"/>
     </row>
-    <row r="7" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="7" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B7" s="47"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -2322,7 +2261,7 @@
       <c r="M7" s="36"/>
       <c r="N7" s="36"/>
     </row>
-    <row r="8" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="8" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B8" s="47"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -2337,7 +2276,7 @@
       <c r="M8" s="36"/>
       <c r="N8" s="36"/>
     </row>
-    <row r="9" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="9" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B9" s="47"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -2352,7 +2291,7 @@
       <c r="M9" s="36"/>
       <c r="N9" s="36"/>
     </row>
-    <row r="10" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="10" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B10" s="47"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -2367,7 +2306,7 @@
       <c r="M10" s="36"/>
       <c r="N10" s="36"/>
     </row>
-    <row r="11" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="11" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B11" s="47"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -2382,7 +2321,7 @@
       <c r="M11" s="36"/>
       <c r="N11" s="36"/>
     </row>
-    <row r="12" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="12" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B12" s="47"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2397,7 +2336,7 @@
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
     </row>
-    <row r="13" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="13" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B13" s="47"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2412,7 +2351,7 @@
       <c r="M13" s="36"/>
       <c r="N13" s="36"/>
     </row>
-    <row r="14" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="14" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B14" s="47"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -2427,7 +2366,7 @@
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
     </row>
-    <row r="15" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="15" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B15" s="47"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2442,7 +2381,7 @@
       <c r="M15" s="36"/>
       <c r="N15" s="36"/>
     </row>
-    <row r="16" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="16" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B16" s="47"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2457,7 +2396,7 @@
       <c r="M16" s="36"/>
       <c r="N16" s="36"/>
     </row>
-    <row r="17" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="17" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B17" s="47"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -2472,7 +2411,7 @@
       <c r="M17" s="36"/>
       <c r="N17" s="36"/>
     </row>
-    <row r="18" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="18" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B18" s="47"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -2487,7 +2426,7 @@
       <c r="M18" s="36"/>
       <c r="N18" s="36"/>
     </row>
-    <row r="19" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="19" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B19" s="47"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -2502,7 +2441,7 @@
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
     </row>
-    <row r="20" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="20" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B20" s="47"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2517,12 +2456,12 @@
       <c r="M20" s="36"/>
       <c r="N20" s="36"/>
     </row>
-    <row r="21" spans="1:15" s="19" customFormat="1" ht="43.5" customHeight="1">
+    <row r="21" spans="1:15" s="19" customFormat="1" ht="43.55" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -2537,7 +2476,7 @@
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
     </row>
-    <row r="22" spans="1:15" ht="26.25" customHeight="1">
+    <row r="22" spans="1:15" ht="26.3" customHeight="1">
       <c r="B22" s="90" t="s">
         <v>49</v>
       </c>
@@ -2548,7 +2487,7 @@
       <c r="G22" s="18"/>
       <c r="H22" s="39"/>
     </row>
-    <row r="23" spans="1:15" ht="39">
+    <row r="23" spans="1:15" ht="36.35">
       <c r="B23" s="43" t="s">
         <v>2</v>
       </c>
@@ -2556,7 +2495,7 @@
         <v>51</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>8</v>
@@ -2568,7 +2507,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I23" s="92" t="s">
         <v>54</v>
@@ -2590,14 +2529,14 @@
       <c r="G24" s="21"/>
       <c r="H24" s="48"/>
       <c r="I24" s="93"/>
-      <c r="J24" s="99"/>
+      <c r="J24" s="96"/>
       <c r="K24" s="40"/>
       <c r="L24" s="40"/>
       <c r="M24" s="40"/>
       <c r="N24" s="40"/>
       <c r="O24" s="40"/>
     </row>
-    <row r="25" spans="1:15" s="14" customFormat="1" ht="18.75">
+    <row r="25" spans="1:15" s="14" customFormat="1" ht="17.55">
       <c r="B25" s="47"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2606,13 +2545,15 @@
       <c r="G25" s="9"/>
       <c r="H25" s="36"/>
       <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
+      <c r="J25" s="37">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
       <c r="M25" s="36"/>
       <c r="N25" s="36"/>
     </row>
-    <row r="26" spans="1:15" s="14" customFormat="1" ht="22.5" hidden="1" customHeight="1">
+    <row r="26" spans="1:15" s="14" customFormat="1" ht="22.55" customHeight="1">
       <c r="B26" s="90" t="s">
         <v>50</v>
       </c>
@@ -2623,13 +2564,15 @@
       <c r="G26" s="9"/>
       <c r="H26" s="36"/>
       <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
+      <c r="J26" s="37">
+        <v>0.31</v>
+      </c>
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
       <c r="M26" s="36"/>
       <c r="N26" s="36"/>
     </row>
-    <row r="27" spans="1:15" s="14" customFormat="1" ht="36.4" hidden="1" customHeight="1">
+    <row r="27" spans="1:15" s="14" customFormat="1" ht="36.5" customHeight="1">
       <c r="B27" s="80" t="s">
         <v>2</v>
       </c>
@@ -2637,7 +2580,7 @@
         <v>51</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>8</v>
@@ -2649,7 +2592,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I27" s="92" t="s">
         <v>54</v>
@@ -2662,7 +2605,7 @@
       <c r="M27" s="36"/>
       <c r="N27" s="36"/>
     </row>
-    <row r="28" spans="1:15" s="14" customFormat="1" ht="31.9" hidden="1" customHeight="1">
+    <row r="28" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1">
       <c r="B28" s="8" t="s">
         <v>7</v>
       </c>
@@ -2673,13 +2616,13 @@
       <c r="G28" s="21"/>
       <c r="H28" s="48"/>
       <c r="I28" s="93"/>
-      <c r="J28" s="94"/>
+      <c r="J28" s="96"/>
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
       <c r="M28" s="36"/>
       <c r="N28" s="36"/>
     </row>
-    <row r="29" spans="1:15" s="14" customFormat="1" ht="18.75">
+    <row r="29" spans="1:15" s="14" customFormat="1" ht="17.55">
       <c r="B29" s="47"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -2694,9 +2637,9 @@
       <c r="M29" s="36"/>
       <c r="N29" s="36"/>
     </row>
-    <row r="30" spans="1:15" s="14" customFormat="1" ht="21">
+    <row r="30" spans="1:15" s="14" customFormat="1" ht="22.55">
       <c r="B30" s="90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -2711,7 +2654,7 @@
       <c r="M30" s="36"/>
       <c r="N30" s="36"/>
     </row>
-    <row r="31" spans="1:15" s="14" customFormat="1" ht="39">
+    <row r="31" spans="1:15" s="14" customFormat="1" ht="36.35">
       <c r="B31" s="80" t="s">
         <v>2</v>
       </c>
@@ -2719,7 +2662,7 @@
         <v>51</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>8</v>
@@ -2731,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="92" t="s">
         <v>54</v>
@@ -2744,7 +2687,7 @@
       <c r="M31" s="36"/>
       <c r="N31" s="36"/>
     </row>
-    <row r="32" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1">
+    <row r="32" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1">
       <c r="B32" s="8" t="s">
         <v>7</v>
       </c>
@@ -2755,13 +2698,13 @@
       <c r="G32" s="21"/>
       <c r="H32" s="48"/>
       <c r="I32" s="93"/>
-      <c r="J32" s="99"/>
+      <c r="J32" s="96"/>
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
       <c r="M32" s="36"/>
       <c r="N32" s="36"/>
     </row>
-    <row r="33" spans="1:18" s="14" customFormat="1" ht="18.75">
+    <row r="33" spans="1:18" s="14" customFormat="1" ht="17.55">
       <c r="B33" s="47"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -2776,7 +2719,7 @@
       <c r="M33" s="36"/>
       <c r="N33" s="36"/>
     </row>
-    <row r="34" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="34" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B34" s="47"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -2791,7 +2734,7 @@
       <c r="M34" s="36"/>
       <c r="N34" s="36"/>
     </row>
-    <row r="35" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="35" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B35" s="47"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -2806,7 +2749,7 @@
       <c r="M35" s="36"/>
       <c r="N35" s="36"/>
     </row>
-    <row r="36" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="36" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B36" s="47"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2821,7 +2764,7 @@
       <c r="M36" s="36"/>
       <c r="N36" s="36"/>
     </row>
-    <row r="37" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="37" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B37" s="47"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -2836,7 +2779,7 @@
       <c r="M37" s="36"/>
       <c r="N37" s="36"/>
     </row>
-    <row r="38" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="38" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B38" s="47"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -2851,7 +2794,7 @@
       <c r="M38" s="36"/>
       <c r="N38" s="36"/>
     </row>
-    <row r="39" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="39" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B39" s="47"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -2866,7 +2809,7 @@
       <c r="M39" s="36"/>
       <c r="N39" s="36"/>
     </row>
-    <row r="40" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="40" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B40" s="47"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -2881,7 +2824,7 @@
       <c r="M40" s="36"/>
       <c r="N40" s="36"/>
     </row>
-    <row r="41" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="41" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B41" s="47"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -2896,7 +2839,7 @@
       <c r="M41" s="36"/>
       <c r="N41" s="36"/>
     </row>
-    <row r="42" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
+    <row r="42" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B42" s="47"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -2911,7 +2854,7 @@
       <c r="M42" s="36"/>
       <c r="N42" s="36"/>
     </row>
-    <row r="43" spans="1:18" ht="26.25" customHeight="1">
+    <row r="43" spans="1:18" ht="26.3" customHeight="1">
       <c r="A43" s="56" t="s">
         <v>48</v>
       </c>
@@ -2935,7 +2878,7 @@
       <c r="Q43" s="54"/>
       <c r="R43" s="54"/>
     </row>
-    <row r="44" spans="1:18" ht="26.25" customHeight="1">
+    <row r="44" spans="1:18" ht="26.3" customHeight="1">
       <c r="A44" s="56"/>
       <c r="B44" s="49"/>
       <c r="C44" s="24"/>
@@ -2974,12 +2917,12 @@
       <c r="Q45" s="54"/>
       <c r="R45" s="54"/>
     </row>
-    <row r="46" spans="1:18" ht="19.5">
+    <row r="46" spans="1:18" ht="18.2">
       <c r="A46" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B46" s="89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="26"/>
       <c r="D46" s="15"/>
@@ -3010,7 +2953,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="89" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="4"/>
@@ -3052,32 +2995,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="T1" sqref="T1:T1048576"/>
       <selection pane="topRight" activeCell="T1" sqref="T1:T1048576"/>
       <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.2"/>
   <cols>
     <col min="1" max="1" width="11" style="58" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="58" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="58" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="58" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="58" customWidth="1"/>
-    <col min="6" max="17" width="10.25" style="58" customWidth="1"/>
-    <col min="18" max="19" width="11.875" style="58" customWidth="1"/>
-    <col min="20" max="20" width="10.25" style="58" customWidth="1"/>
-    <col min="21" max="23" width="10.5" style="76" customWidth="1"/>
-    <col min="24" max="24" width="11.125" style="76" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="58" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="58" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="58" customWidth="1"/>
+    <col min="6" max="17" width="10.21875" style="58" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" style="58" customWidth="1"/>
+    <col min="19" max="19" width="11.88671875" style="99" customWidth="1"/>
+    <col min="20" max="20" width="10.21875" style="58" customWidth="1"/>
+    <col min="21" max="23" width="10.44140625" style="76" customWidth="1"/>
+    <col min="24" max="24" width="11.109375" style="76" customWidth="1"/>
     <col min="25" max="27" width="11" style="77" customWidth="1"/>
-    <col min="28" max="31" width="11.125" style="76" customWidth="1"/>
-    <col min="32" max="33" width="9.375" style="78" customWidth="1"/>
-    <col min="34" max="34" width="11.125" style="78" customWidth="1"/>
-    <col min="35" max="37" width="11.125" style="79" customWidth="1"/>
-    <col min="38" max="16384" width="8.875" style="58"/>
+    <col min="28" max="31" width="11.109375" style="76" customWidth="1"/>
+    <col min="32" max="33" width="9.33203125" style="78" customWidth="1"/>
+    <col min="34" max="34" width="11.109375" style="78" customWidth="1"/>
+    <col min="35" max="37" width="11.109375" style="79" customWidth="1"/>
+    <col min="38" max="16384" width="8.88671875" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="42.75" customHeight="1">
@@ -3105,7 +3049,7 @@
       <c r="AJ1" s="98"/>
       <c r="AK1" s="98"/>
     </row>
-    <row r="2" spans="1:37" ht="78">
+    <row r="2" spans="1:37" ht="73.25">
       <c r="A2" s="81" t="s">
         <v>16</v>
       </c>
@@ -3160,7 +3104,7 @@
       <c r="R2" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="82" t="s">
+      <c r="S2" s="100" t="s">
         <v>33</v>
       </c>
       <c r="T2" s="83" t="s">
@@ -3237,7 +3181,7 @@
       <c r="P3" s="68"/>
       <c r="Q3" s="68"/>
       <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
+      <c r="S3" s="101"/>
       <c r="T3" s="69"/>
       <c r="U3" s="72"/>
       <c r="V3" s="73"/>
@@ -3276,7 +3220,7 @@
       <c r="P4" s="68"/>
       <c r="Q4" s="68"/>
       <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
+      <c r="S4" s="101"/>
       <c r="T4" s="69"/>
       <c r="U4" s="72"/>
       <c r="V4" s="73"/>
@@ -3315,7 +3259,7 @@
       <c r="P5" s="68"/>
       <c r="Q5" s="68"/>
       <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
+      <c r="S5" s="101"/>
       <c r="T5" s="69"/>
       <c r="U5" s="72"/>
       <c r="V5" s="73"/>
@@ -3354,7 +3298,7 @@
       <c r="P6" s="68"/>
       <c r="Q6" s="68"/>
       <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
+      <c r="S6" s="101"/>
       <c r="T6" s="69"/>
       <c r="U6" s="72"/>
       <c r="V6" s="73"/>
@@ -3393,7 +3337,7 @@
       <c r="P7" s="68"/>
       <c r="Q7" s="68"/>
       <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
+      <c r="S7" s="101"/>
       <c r="T7" s="69"/>
       <c r="U7" s="72"/>
       <c r="V7" s="73"/>
@@ -3432,7 +3376,7 @@
       <c r="P8" s="68"/>
       <c r="Q8" s="68"/>
       <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
+      <c r="S8" s="101"/>
       <c r="T8" s="69"/>
       <c r="U8" s="72"/>
       <c r="V8" s="73"/>
@@ -3471,7 +3415,7 @@
       <c r="P9" s="68"/>
       <c r="Q9" s="68"/>
       <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
+      <c r="S9" s="101"/>
       <c r="T9" s="69"/>
       <c r="U9" s="72"/>
       <c r="V9" s="73"/>
@@ -3510,7 +3454,7 @@
       <c r="P10" s="68"/>
       <c r="Q10" s="68"/>
       <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
+      <c r="S10" s="101"/>
       <c r="T10" s="69"/>
       <c r="U10" s="72"/>
       <c r="V10" s="73"/>
@@ -3549,7 +3493,7 @@
       <c r="P11" s="68"/>
       <c r="Q11" s="68"/>
       <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
+      <c r="S11" s="101"/>
       <c r="T11" s="69"/>
       <c r="U11" s="72"/>
       <c r="V11" s="73"/>
@@ -3588,7 +3532,7 @@
       <c r="P12" s="68"/>
       <c r="Q12" s="68"/>
       <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
+      <c r="S12" s="101"/>
       <c r="T12" s="69"/>
       <c r="U12" s="72"/>
       <c r="V12" s="73"/>
@@ -3627,7 +3571,7 @@
       <c r="P13" s="68"/>
       <c r="Q13" s="68"/>
       <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
+      <c r="S13" s="101"/>
       <c r="T13" s="69"/>
       <c r="U13" s="72"/>
       <c r="V13" s="73"/>
@@ -3666,7 +3610,7 @@
       <c r="P14" s="68"/>
       <c r="Q14" s="68"/>
       <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
+      <c r="S14" s="101"/>
       <c r="T14" s="69"/>
       <c r="U14" s="72"/>
       <c r="V14" s="73"/>
@@ -3705,7 +3649,7 @@
       <c r="P15" s="68"/>
       <c r="Q15" s="68"/>
       <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
+      <c r="S15" s="101"/>
       <c r="T15" s="69"/>
       <c r="U15" s="72"/>
       <c r="V15" s="73"/>
@@ -3744,7 +3688,7 @@
       <c r="P16" s="68"/>
       <c r="Q16" s="68"/>
       <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
+      <c r="S16" s="101"/>
       <c r="T16" s="69"/>
       <c r="U16" s="72"/>
       <c r="V16" s="73"/>
@@ -3783,7 +3727,7 @@
       <c r="P17" s="68"/>
       <c r="Q17" s="68"/>
       <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
+      <c r="S17" s="101"/>
       <c r="T17" s="69"/>
       <c r="U17" s="72"/>
       <c r="V17" s="73"/>
@@ -3822,7 +3766,7 @@
       <c r="P18" s="68"/>
       <c r="Q18" s="68"/>
       <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
+      <c r="S18" s="101"/>
       <c r="T18" s="69"/>
       <c r="U18" s="72"/>
       <c r="V18" s="73"/>
@@ -3861,7 +3805,7 @@
       <c r="P19" s="68"/>
       <c r="Q19" s="68"/>
       <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
+      <c r="S19" s="101"/>
       <c r="T19" s="69"/>
       <c r="U19" s="72"/>
       <c r="V19" s="73"/>
@@ -3900,7 +3844,7 @@
       <c r="P20" s="68"/>
       <c r="Q20" s="68"/>
       <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
+      <c r="S20" s="101"/>
       <c r="T20" s="69"/>
       <c r="U20" s="72"/>
       <c r="V20" s="73"/>
@@ -3939,7 +3883,7 @@
       <c r="P21" s="68"/>
       <c r="Q21" s="68"/>
       <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
+      <c r="S21" s="101"/>
       <c r="T21" s="69"/>
       <c r="U21" s="72"/>
       <c r="V21" s="73"/>
@@ -3978,7 +3922,7 @@
       <c r="P22" s="68"/>
       <c r="Q22" s="68"/>
       <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
+      <c r="S22" s="101"/>
       <c r="T22" s="69"/>
       <c r="U22" s="72"/>
       <c r="V22" s="73"/>
@@ -4017,7 +3961,7 @@
       <c r="P23" s="68"/>
       <c r="Q23" s="68"/>
       <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
+      <c r="S23" s="101"/>
       <c r="T23" s="69"/>
       <c r="U23" s="72"/>
       <c r="V23" s="73"/>
@@ -4056,7 +4000,7 @@
       <c r="P24" s="68"/>
       <c r="Q24" s="68"/>
       <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
+      <c r="S24" s="101"/>
       <c r="T24" s="69"/>
       <c r="U24" s="72"/>
       <c r="V24" s="73"/>
@@ -4095,7 +4039,7 @@
       <c r="P25" s="68"/>
       <c r="Q25" s="68"/>
       <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
+      <c r="S25" s="101"/>
       <c r="T25" s="69"/>
       <c r="U25" s="72"/>
       <c r="V25" s="73"/>
@@ -4134,7 +4078,7 @@
       <c r="P26" s="68"/>
       <c r="Q26" s="68"/>
       <c r="R26" s="62"/>
-      <c r="S26" s="62"/>
+      <c r="S26" s="101"/>
       <c r="T26" s="69"/>
       <c r="U26" s="72"/>
       <c r="V26" s="73"/>
@@ -4173,7 +4117,7 @@
       <c r="P27" s="68"/>
       <c r="Q27" s="68"/>
       <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
+      <c r="S27" s="101"/>
       <c r="T27" s="69"/>
       <c r="U27" s="72"/>
       <c r="V27" s="73"/>
@@ -4212,7 +4156,7 @@
       <c r="P28" s="68"/>
       <c r="Q28" s="68"/>
       <c r="R28" s="62"/>
-      <c r="S28" s="62"/>
+      <c r="S28" s="101"/>
       <c r="T28" s="69"/>
       <c r="U28" s="72"/>
       <c r="V28" s="73"/>
@@ -4251,7 +4195,7 @@
       <c r="P29" s="68"/>
       <c r="Q29" s="68"/>
       <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
+      <c r="S29" s="101"/>
       <c r="T29" s="69"/>
       <c r="U29" s="72"/>
       <c r="V29" s="73"/>
@@ -4290,7 +4234,7 @@
       <c r="P30" s="68"/>
       <c r="Q30" s="68"/>
       <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
+      <c r="S30" s="101"/>
       <c r="T30" s="69"/>
       <c r="U30" s="72"/>
       <c r="V30" s="73"/>
@@ -4313,7 +4257,7 @@
     <row r="33" spans="2:21">
       <c r="B33" s="87"/>
     </row>
-    <row r="34" spans="2:21" ht="19.5">
+    <row r="34" spans="2:21">
       <c r="U34" s="88" t="s">
         <v>47</v>
       </c>

--- a/PhoenixCI/Excel_Template/40013.xlsx
+++ b/PhoenixCI/Excel_Template/40013.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 風管組業務\B. 資訊需求單\20190502 盤後系統需求\3. 調整template\報表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GitHub\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="238" yWindow="50" windowWidth="18895" windowHeight="7939" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18900" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="rpt_future" sheetId="10" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">fut_3index!$A$1:$AK$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">rpt_future!$A$1:$J$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">rpt_future!$A$1:$J$52</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">fut_3index!$A:$B</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
   <si>
     <r>
       <rPr>
@@ -1065,51 +1065,6 @@
   </si>
   <si>
     <r>
-      <t>以SMA或MAX計算之保證金變動幅度已達</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 10%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>得調整標準，且進位後金額改變，建議事項如「保證金調整審核會議</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>紀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>錄」。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="14"/>
         <rFont val="標楷體"/>
@@ -1149,6 +1104,75 @@
       <t>簡單移動平均法-日內變動(MAX)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>EWMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>計算保證金變動幅度已達</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>得調整標準，且進位後金額改變。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>以SMA及MAX計算保證金變動幅度已達</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>得調整標準，且進位後金額改變。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1162,7 +1186,7 @@
     <numFmt numFmtId="179" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1393,6 +1417,18 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1461,7 +1497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1727,21 +1763,28 @@
     <xf numFmtId="10" fontId="34" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2116,30 +2159,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="9" customWidth="1"/>
     <col min="3" max="3" width="19" style="9" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="9" customWidth="1"/>
-    <col min="6" max="7" width="19.77734375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="19.77734375" style="32" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="21.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="9" customWidth="1"/>
+    <col min="6" max="7" width="19.75" style="9" customWidth="1"/>
+    <col min="8" max="8" width="19.75" style="32" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="32" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="32" customWidth="1"/>
     <col min="11" max="11" width="11" style="32" customWidth="1"/>
-    <col min="12" max="13" width="9.77734375" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.75" style="32" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="32"/>
     <col min="15" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="43.85" customHeight="1">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="43.9" customHeight="1">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -2150,8 +2193,8 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
       <c r="I1" s="42"/>
       <c r="J1" s="95"/>
       <c r="K1" s="94"/>
@@ -2159,7 +2202,7 @@
       <c r="M1" s="33"/>
       <c r="N1" s="33"/>
     </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" ht="36.35">
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="39">
       <c r="A2" s="5"/>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -2190,7 +2233,7 @@
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
     </row>
-    <row r="3" spans="1:15" ht="30.05" customHeight="1">
+    <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2216,7 +2259,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="5" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B5" s="47"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -2231,7 +2274,7 @@
       <c r="M5" s="36"/>
       <c r="N5" s="36"/>
     </row>
-    <row r="6" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="6" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B6" s="47"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -2246,7 +2289,7 @@
       <c r="M6" s="36"/>
       <c r="N6" s="36"/>
     </row>
-    <row r="7" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="7" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B7" s="47"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -2261,7 +2304,7 @@
       <c r="M7" s="36"/>
       <c r="N7" s="36"/>
     </row>
-    <row r="8" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="8" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B8" s="47"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -2276,7 +2319,7 @@
       <c r="M8" s="36"/>
       <c r="N8" s="36"/>
     </row>
-    <row r="9" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="9" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B9" s="47"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -2291,7 +2334,7 @@
       <c r="M9" s="36"/>
       <c r="N9" s="36"/>
     </row>
-    <row r="10" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="10" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B10" s="47"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -2306,7 +2349,7 @@
       <c r="M10" s="36"/>
       <c r="N10" s="36"/>
     </row>
-    <row r="11" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="11" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B11" s="47"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -2321,7 +2364,7 @@
       <c r="M11" s="36"/>
       <c r="N11" s="36"/>
     </row>
-    <row r="12" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="12" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B12" s="47"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2336,7 +2379,7 @@
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
     </row>
-    <row r="13" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="13" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B13" s="47"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2351,7 +2394,7 @@
       <c r="M13" s="36"/>
       <c r="N13" s="36"/>
     </row>
-    <row r="14" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="14" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B14" s="47"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -2366,7 +2409,7 @@
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
     </row>
-    <row r="15" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="15" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B15" s="47"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2381,7 +2424,7 @@
       <c r="M15" s="36"/>
       <c r="N15" s="36"/>
     </row>
-    <row r="16" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="16" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B16" s="47"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2396,7 +2439,7 @@
       <c r="M16" s="36"/>
       <c r="N16" s="36"/>
     </row>
-    <row r="17" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="17" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B17" s="47"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -2411,7 +2454,7 @@
       <c r="M17" s="36"/>
       <c r="N17" s="36"/>
     </row>
-    <row r="18" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="18" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B18" s="47"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -2426,7 +2469,7 @@
       <c r="M18" s="36"/>
       <c r="N18" s="36"/>
     </row>
-    <row r="19" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="19" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B19" s="47"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -2441,7 +2484,7 @@
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
     </row>
-    <row r="20" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="20" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B20" s="47"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2456,7 +2499,7 @@
       <c r="M20" s="36"/>
       <c r="N20" s="36"/>
     </row>
-    <row r="21" spans="1:15" s="19" customFormat="1" ht="43.55" customHeight="1">
+    <row r="21" spans="1:15" s="19" customFormat="1" ht="43.5" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>6</v>
       </c>
@@ -2476,7 +2519,7 @@
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
     </row>
-    <row r="22" spans="1:15" ht="26.3" customHeight="1">
+    <row r="22" spans="1:15" ht="26.25" customHeight="1">
       <c r="B22" s="90" t="s">
         <v>49</v>
       </c>
@@ -2487,7 +2530,7 @@
       <c r="G22" s="18"/>
       <c r="H22" s="39"/>
     </row>
-    <row r="23" spans="1:15" ht="36.35">
+    <row r="23" spans="1:15" ht="39">
       <c r="B23" s="43" t="s">
         <v>2</v>
       </c>
@@ -2507,7 +2550,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I23" s="92" t="s">
         <v>54</v>
@@ -2536,7 +2579,7 @@
       <c r="N24" s="40"/>
       <c r="O24" s="40"/>
     </row>
-    <row r="25" spans="1:15" s="14" customFormat="1" ht="17.55">
+    <row r="25" spans="1:15" s="14" customFormat="1" ht="18.75">
       <c r="B25" s="47"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2553,7 +2596,7 @@
       <c r="M25" s="36"/>
       <c r="N25" s="36"/>
     </row>
-    <row r="26" spans="1:15" s="14" customFormat="1" ht="22.55" customHeight="1">
+    <row r="26" spans="1:15" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="B26" s="90" t="s">
         <v>50</v>
       </c>
@@ -2572,7 +2615,7 @@
       <c r="M26" s="36"/>
       <c r="N26" s="36"/>
     </row>
-    <row r="27" spans="1:15" s="14" customFormat="1" ht="36.5" customHeight="1">
+    <row r="27" spans="1:15" s="14" customFormat="1" ht="36.6" customHeight="1">
       <c r="B27" s="80" t="s">
         <v>2</v>
       </c>
@@ -2592,7 +2635,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I27" s="92" t="s">
         <v>54</v>
@@ -2605,7 +2648,7 @@
       <c r="M27" s="36"/>
       <c r="N27" s="36"/>
     </row>
-    <row r="28" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1">
+    <row r="28" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1">
       <c r="B28" s="8" t="s">
         <v>7</v>
       </c>
@@ -2622,7 +2665,7 @@
       <c r="M28" s="36"/>
       <c r="N28" s="36"/>
     </row>
-    <row r="29" spans="1:15" s="14" customFormat="1" ht="17.55">
+    <row r="29" spans="1:15" s="14" customFormat="1" ht="18.75">
       <c r="B29" s="47"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -2637,9 +2680,9 @@
       <c r="M29" s="36"/>
       <c r="N29" s="36"/>
     </row>
-    <row r="30" spans="1:15" s="14" customFormat="1" ht="22.55">
+    <row r="30" spans="1:15" s="14" customFormat="1" ht="21">
       <c r="B30" s="90" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -2654,7 +2697,7 @@
       <c r="M30" s="36"/>
       <c r="N30" s="36"/>
     </row>
-    <row r="31" spans="1:15" s="14" customFormat="1" ht="36.35">
+    <row r="31" spans="1:15" s="14" customFormat="1" ht="39">
       <c r="B31" s="80" t="s">
         <v>2</v>
       </c>
@@ -2674,7 +2717,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I31" s="92" t="s">
         <v>54</v>
@@ -2687,7 +2730,7 @@
       <c r="M31" s="36"/>
       <c r="N31" s="36"/>
     </row>
-    <row r="32" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1">
+    <row r="32" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1">
       <c r="B32" s="8" t="s">
         <v>7</v>
       </c>
@@ -2704,7 +2747,7 @@
       <c r="M32" s="36"/>
       <c r="N32" s="36"/>
     </row>
-    <row r="33" spans="1:18" s="14" customFormat="1" ht="17.55">
+    <row r="33" spans="1:18" s="14" customFormat="1" ht="18.75">
       <c r="B33" s="47"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -2719,7 +2762,7 @@
       <c r="M33" s="36"/>
       <c r="N33" s="36"/>
     </row>
-    <row r="34" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="34" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B34" s="47"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -2734,7 +2777,7 @@
       <c r="M34" s="36"/>
       <c r="N34" s="36"/>
     </row>
-    <row r="35" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="35" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B35" s="47"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -2749,7 +2792,7 @@
       <c r="M35" s="36"/>
       <c r="N35" s="36"/>
     </row>
-    <row r="36" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="36" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B36" s="47"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2764,7 +2807,7 @@
       <c r="M36" s="36"/>
       <c r="N36" s="36"/>
     </row>
-    <row r="37" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="37" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B37" s="47"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -2779,7 +2822,7 @@
       <c r="M37" s="36"/>
       <c r="N37" s="36"/>
     </row>
-    <row r="38" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="38" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B38" s="47"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -2794,7 +2837,7 @@
       <c r="M38" s="36"/>
       <c r="N38" s="36"/>
     </row>
-    <row r="39" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="39" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B39" s="47"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -2809,7 +2852,7 @@
       <c r="M39" s="36"/>
       <c r="N39" s="36"/>
     </row>
-    <row r="40" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="40" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B40" s="47"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -2824,7 +2867,7 @@
       <c r="M40" s="36"/>
       <c r="N40" s="36"/>
     </row>
-    <row r="41" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="41" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B41" s="47"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -2839,7 +2882,7 @@
       <c r="M41" s="36"/>
       <c r="N41" s="36"/>
     </row>
-    <row r="42" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="42" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
       <c r="B42" s="47"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -2854,7 +2897,7 @@
       <c r="M42" s="36"/>
       <c r="N42" s="36"/>
     </row>
-    <row r="43" spans="1:18" ht="26.3" customHeight="1">
+    <row r="43" spans="1:18" ht="26.25" customHeight="1">
       <c r="A43" s="56" t="s">
         <v>48</v>
       </c>
@@ -2878,7 +2921,7 @@
       <c r="Q43" s="54"/>
       <c r="R43" s="54"/>
     </row>
-    <row r="44" spans="1:18" ht="26.3" customHeight="1">
+    <row r="44" spans="1:18" ht="26.25" customHeight="1">
       <c r="A44" s="56"/>
       <c r="B44" s="49"/>
       <c r="C44" s="24"/>
@@ -2917,7 +2960,7 @@
       <c r="Q45" s="54"/>
       <c r="R45" s="54"/>
     </row>
-    <row r="46" spans="1:18" ht="18.2">
+    <row r="46" spans="1:18" ht="19.5">
       <c r="A46" s="25" t="s">
         <v>52</v>
       </c>
@@ -2948,35 +2991,67 @@
       <c r="D47" s="27"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:18">
-      <c r="A48" s="51">
+    <row r="48" spans="1:18" s="104" customFormat="1">
+      <c r="A48" s="102">
         <v>2</v>
       </c>
-      <c r="B48" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="15"/>
+      <c r="B48" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="103"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="51"/>
+      <c r="B49" s="89" t="s">
+        <v>53</v>
+      </c>
       <c r="D49" s="27"/>
       <c r="E49" s="4"/>
-      <c r="G49" s="22"/>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="28" t="s">
+    </row>
+    <row r="50" spans="1:10" s="104" customFormat="1">
+      <c r="A50" s="102">
+        <v>3</v>
+      </c>
+      <c r="B50" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="103"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="B51" s="15"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="4"/>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="B52" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="B50:J50"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2995,7 +3070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="T1" sqref="T1:T1048576"/>
       <selection pane="topRight" activeCell="T1" sqref="T1:T1048576"/>
@@ -3003,53 +3078,53 @@
       <selection pane="bottomRight" activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="11" style="58" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="58" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" style="58" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="58" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="58" customWidth="1"/>
-    <col min="6" max="17" width="10.21875" style="58" customWidth="1"/>
-    <col min="18" max="18" width="11.88671875" style="58" customWidth="1"/>
-    <col min="19" max="19" width="11.88671875" style="99" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" style="58" customWidth="1"/>
-    <col min="21" max="23" width="10.44140625" style="76" customWidth="1"/>
-    <col min="24" max="24" width="11.109375" style="76" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="58" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="58" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="58" customWidth="1"/>
+    <col min="6" max="17" width="10.25" style="58" customWidth="1"/>
+    <col min="18" max="18" width="11.875" style="58" customWidth="1"/>
+    <col min="19" max="19" width="11.875" style="97" customWidth="1"/>
+    <col min="20" max="20" width="10.25" style="58" customWidth="1"/>
+    <col min="21" max="23" width="10.5" style="76" customWidth="1"/>
+    <col min="24" max="24" width="11.125" style="76" customWidth="1"/>
     <col min="25" max="27" width="11" style="77" customWidth="1"/>
-    <col min="28" max="31" width="11.109375" style="76" customWidth="1"/>
-    <col min="32" max="33" width="9.33203125" style="78" customWidth="1"/>
-    <col min="34" max="34" width="11.109375" style="78" customWidth="1"/>
-    <col min="35" max="37" width="11.109375" style="79" customWidth="1"/>
-    <col min="38" max="16384" width="8.88671875" style="58"/>
+    <col min="28" max="31" width="11.125" style="76" customWidth="1"/>
+    <col min="32" max="33" width="9.375" style="78" customWidth="1"/>
+    <col min="34" max="34" width="11.125" style="78" customWidth="1"/>
+    <col min="35" max="37" width="11.125" style="79" customWidth="1"/>
+    <col min="38" max="16384" width="8.875" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="42.75" customHeight="1">
       <c r="A1" s="57"/>
       <c r="B1" s="57"/>
-      <c r="U1" s="98" t="s">
+      <c r="U1" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
-      <c r="X1" s="98"/>
-      <c r="Y1" s="98"/>
-      <c r="Z1" s="98"/>
-      <c r="AA1" s="98"/>
-      <c r="AB1" s="98" t="s">
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="101"/>
+      <c r="AB1" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="98"/>
-      <c r="AD1" s="98"/>
-      <c r="AE1" s="98"/>
-      <c r="AF1" s="98"/>
-      <c r="AG1" s="98"/>
-      <c r="AH1" s="98"/>
-      <c r="AI1" s="98"/>
-      <c r="AJ1" s="98"/>
-      <c r="AK1" s="98"/>
-    </row>
-    <row r="2" spans="1:37" ht="73.25">
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="101"/>
+      <c r="AE1" s="101"/>
+      <c r="AF1" s="101"/>
+      <c r="AG1" s="101"/>
+      <c r="AH1" s="101"/>
+      <c r="AI1" s="101"/>
+      <c r="AJ1" s="101"/>
+      <c r="AK1" s="101"/>
+    </row>
+    <row r="2" spans="1:37" ht="78">
       <c r="A2" s="81" t="s">
         <v>16</v>
       </c>
@@ -3104,7 +3179,7 @@
       <c r="R2" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="100" t="s">
+      <c r="S2" s="98" t="s">
         <v>33</v>
       </c>
       <c r="T2" s="83" t="s">
@@ -3181,7 +3256,7 @@
       <c r="P3" s="68"/>
       <c r="Q3" s="68"/>
       <c r="R3" s="62"/>
-      <c r="S3" s="101"/>
+      <c r="S3" s="99"/>
       <c r="T3" s="69"/>
       <c r="U3" s="72"/>
       <c r="V3" s="73"/>
@@ -3220,7 +3295,7 @@
       <c r="P4" s="68"/>
       <c r="Q4" s="68"/>
       <c r="R4" s="62"/>
-      <c r="S4" s="101"/>
+      <c r="S4" s="99"/>
       <c r="T4" s="69"/>
       <c r="U4" s="72"/>
       <c r="V4" s="73"/>
@@ -3259,7 +3334,7 @@
       <c r="P5" s="68"/>
       <c r="Q5" s="68"/>
       <c r="R5" s="62"/>
-      <c r="S5" s="101"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="69"/>
       <c r="U5" s="72"/>
       <c r="V5" s="73"/>
@@ -3298,7 +3373,7 @@
       <c r="P6" s="68"/>
       <c r="Q6" s="68"/>
       <c r="R6" s="62"/>
-      <c r="S6" s="101"/>
+      <c r="S6" s="99"/>
       <c r="T6" s="69"/>
       <c r="U6" s="72"/>
       <c r="V6" s="73"/>
@@ -3337,7 +3412,7 @@
       <c r="P7" s="68"/>
       <c r="Q7" s="68"/>
       <c r="R7" s="62"/>
-      <c r="S7" s="101"/>
+      <c r="S7" s="99"/>
       <c r="T7" s="69"/>
       <c r="U7" s="72"/>
       <c r="V7" s="73"/>
@@ -3376,7 +3451,7 @@
       <c r="P8" s="68"/>
       <c r="Q8" s="68"/>
       <c r="R8" s="62"/>
-      <c r="S8" s="101"/>
+      <c r="S8" s="99"/>
       <c r="T8" s="69"/>
       <c r="U8" s="72"/>
       <c r="V8" s="73"/>
@@ -3415,7 +3490,7 @@
       <c r="P9" s="68"/>
       <c r="Q9" s="68"/>
       <c r="R9" s="62"/>
-      <c r="S9" s="101"/>
+      <c r="S9" s="99"/>
       <c r="T9" s="69"/>
       <c r="U9" s="72"/>
       <c r="V9" s="73"/>
@@ -3454,7 +3529,7 @@
       <c r="P10" s="68"/>
       <c r="Q10" s="68"/>
       <c r="R10" s="62"/>
-      <c r="S10" s="101"/>
+      <c r="S10" s="99"/>
       <c r="T10" s="69"/>
       <c r="U10" s="72"/>
       <c r="V10" s="73"/>
@@ -3493,7 +3568,7 @@
       <c r="P11" s="68"/>
       <c r="Q11" s="68"/>
       <c r="R11" s="62"/>
-      <c r="S11" s="101"/>
+      <c r="S11" s="99"/>
       <c r="T11" s="69"/>
       <c r="U11" s="72"/>
       <c r="V11" s="73"/>
@@ -3532,7 +3607,7 @@
       <c r="P12" s="68"/>
       <c r="Q12" s="68"/>
       <c r="R12" s="62"/>
-      <c r="S12" s="101"/>
+      <c r="S12" s="99"/>
       <c r="T12" s="69"/>
       <c r="U12" s="72"/>
       <c r="V12" s="73"/>
@@ -3571,7 +3646,7 @@
       <c r="P13" s="68"/>
       <c r="Q13" s="68"/>
       <c r="R13" s="62"/>
-      <c r="S13" s="101"/>
+      <c r="S13" s="99"/>
       <c r="T13" s="69"/>
       <c r="U13" s="72"/>
       <c r="V13" s="73"/>
@@ -3610,7 +3685,7 @@
       <c r="P14" s="68"/>
       <c r="Q14" s="68"/>
       <c r="R14" s="62"/>
-      <c r="S14" s="101"/>
+      <c r="S14" s="99"/>
       <c r="T14" s="69"/>
       <c r="U14" s="72"/>
       <c r="V14" s="73"/>
@@ -3649,7 +3724,7 @@
       <c r="P15" s="68"/>
       <c r="Q15" s="68"/>
       <c r="R15" s="62"/>
-      <c r="S15" s="101"/>
+      <c r="S15" s="99"/>
       <c r="T15" s="69"/>
       <c r="U15" s="72"/>
       <c r="V15" s="73"/>
@@ -3688,7 +3763,7 @@
       <c r="P16" s="68"/>
       <c r="Q16" s="68"/>
       <c r="R16" s="62"/>
-      <c r="S16" s="101"/>
+      <c r="S16" s="99"/>
       <c r="T16" s="69"/>
       <c r="U16" s="72"/>
       <c r="V16" s="73"/>
@@ -3727,7 +3802,7 @@
       <c r="P17" s="68"/>
       <c r="Q17" s="68"/>
       <c r="R17" s="62"/>
-      <c r="S17" s="101"/>
+      <c r="S17" s="99"/>
       <c r="T17" s="69"/>
       <c r="U17" s="72"/>
       <c r="V17" s="73"/>
@@ -3766,7 +3841,7 @@
       <c r="P18" s="68"/>
       <c r="Q18" s="68"/>
       <c r="R18" s="62"/>
-      <c r="S18" s="101"/>
+      <c r="S18" s="99"/>
       <c r="T18" s="69"/>
       <c r="U18" s="72"/>
       <c r="V18" s="73"/>
@@ -3805,7 +3880,7 @@
       <c r="P19" s="68"/>
       <c r="Q19" s="68"/>
       <c r="R19" s="62"/>
-      <c r="S19" s="101"/>
+      <c r="S19" s="99"/>
       <c r="T19" s="69"/>
       <c r="U19" s="72"/>
       <c r="V19" s="73"/>
@@ -3844,7 +3919,7 @@
       <c r="P20" s="68"/>
       <c r="Q20" s="68"/>
       <c r="R20" s="62"/>
-      <c r="S20" s="101"/>
+      <c r="S20" s="99"/>
       <c r="T20" s="69"/>
       <c r="U20" s="72"/>
       <c r="V20" s="73"/>
@@ -3883,7 +3958,7 @@
       <c r="P21" s="68"/>
       <c r="Q21" s="68"/>
       <c r="R21" s="62"/>
-      <c r="S21" s="101"/>
+      <c r="S21" s="99"/>
       <c r="T21" s="69"/>
       <c r="U21" s="72"/>
       <c r="V21" s="73"/>
@@ -3922,7 +3997,7 @@
       <c r="P22" s="68"/>
       <c r="Q22" s="68"/>
       <c r="R22" s="62"/>
-      <c r="S22" s="101"/>
+      <c r="S22" s="99"/>
       <c r="T22" s="69"/>
       <c r="U22" s="72"/>
       <c r="V22" s="73"/>
@@ -3961,7 +4036,7 @@
       <c r="P23" s="68"/>
       <c r="Q23" s="68"/>
       <c r="R23" s="62"/>
-      <c r="S23" s="101"/>
+      <c r="S23" s="99"/>
       <c r="T23" s="69"/>
       <c r="U23" s="72"/>
       <c r="V23" s="73"/>
@@ -4000,7 +4075,7 @@
       <c r="P24" s="68"/>
       <c r="Q24" s="68"/>
       <c r="R24" s="62"/>
-      <c r="S24" s="101"/>
+      <c r="S24" s="99"/>
       <c r="T24" s="69"/>
       <c r="U24" s="72"/>
       <c r="V24" s="73"/>
@@ -4039,7 +4114,7 @@
       <c r="P25" s="68"/>
       <c r="Q25" s="68"/>
       <c r="R25" s="62"/>
-      <c r="S25" s="101"/>
+      <c r="S25" s="99"/>
       <c r="T25" s="69"/>
       <c r="U25" s="72"/>
       <c r="V25" s="73"/>
@@ -4078,7 +4153,7 @@
       <c r="P26" s="68"/>
       <c r="Q26" s="68"/>
       <c r="R26" s="62"/>
-      <c r="S26" s="101"/>
+      <c r="S26" s="99"/>
       <c r="T26" s="69"/>
       <c r="U26" s="72"/>
       <c r="V26" s="73"/>
@@ -4117,7 +4192,7 @@
       <c r="P27" s="68"/>
       <c r="Q27" s="68"/>
       <c r="R27" s="62"/>
-      <c r="S27" s="101"/>
+      <c r="S27" s="99"/>
       <c r="T27" s="69"/>
       <c r="U27" s="72"/>
       <c r="V27" s="73"/>
@@ -4156,7 +4231,7 @@
       <c r="P28" s="68"/>
       <c r="Q28" s="68"/>
       <c r="R28" s="62"/>
-      <c r="S28" s="101"/>
+      <c r="S28" s="99"/>
       <c r="T28" s="69"/>
       <c r="U28" s="72"/>
       <c r="V28" s="73"/>
@@ -4195,7 +4270,7 @@
       <c r="P29" s="68"/>
       <c r="Q29" s="68"/>
       <c r="R29" s="62"/>
-      <c r="S29" s="101"/>
+      <c r="S29" s="99"/>
       <c r="T29" s="69"/>
       <c r="U29" s="72"/>
       <c r="V29" s="73"/>
@@ -4234,7 +4309,7 @@
       <c r="P30" s="68"/>
       <c r="Q30" s="68"/>
       <c r="R30" s="62"/>
-      <c r="S30" s="101"/>
+      <c r="S30" s="99"/>
       <c r="T30" s="69"/>
       <c r="U30" s="72"/>
       <c r="V30" s="73"/>
@@ -4257,7 +4332,7 @@
     <row r="33" spans="2:21">
       <c r="B33" s="87"/>
     </row>
-    <row r="34" spans="2:21">
+    <row r="34" spans="2:21" ht="19.5">
       <c r="U34" s="88" t="s">
         <v>47</v>
       </c>

--- a/PhoenixCI/Excel_Template/40013.xlsx
+++ b/PhoenixCI/Excel_Template/40013.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <r>
       <rPr>
@@ -975,10 +975,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>1.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>□I5F</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1026,42 +1022,6 @@
       <t>B</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>以SMA及MAX計算之保證金變動幅度均</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>未達</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 10%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>得調整標準，或雖達得調整標準但進位後金額不變，保證金維持現行收取標準。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1151,7 +1111,32 @@
   </si>
   <si>
     <r>
-      <t>以SMA及MAX計算保證金變動幅度已達</t>
+      <t>以SMA及MAX計算保證金變動幅度均未達</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>得調整標準，或雖達得調整標準但進位後金額不變。</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>以SMA或MAX計算保證金變動幅度已達</t>
     </r>
     <r>
       <rPr>
@@ -1186,7 +1171,7 @@
     <numFmt numFmtId="179" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1396,14 +1381,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1493,11 +1470,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1564,12 +1541,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1751,7 +1722,7 @@
     <xf numFmtId="177" fontId="27" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="34" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="33" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1760,7 +1731,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="34" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="33" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
@@ -1772,19 +1743,19 @@
     <xf numFmtId="176" fontId="25" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2162,10 +2133,10 @@
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="9" customWidth="1"/>
@@ -2173,17 +2144,17 @@
     <col min="4" max="4" width="21.25" style="9" customWidth="1"/>
     <col min="5" max="5" width="18.625" style="9" customWidth="1"/>
     <col min="6" max="7" width="19.75" style="9" customWidth="1"/>
-    <col min="8" max="8" width="19.75" style="32" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="32" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="32" customWidth="1"/>
-    <col min="11" max="11" width="11" style="32" customWidth="1"/>
-    <col min="12" max="13" width="9.75" style="32" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="32"/>
+    <col min="8" max="8" width="19.75" style="30" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="30" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="30" customWidth="1"/>
+    <col min="11" max="11" width="11" style="30" customWidth="1"/>
+    <col min="12" max="13" width="9.75" style="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="30"/>
     <col min="15" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="43.9" customHeight="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -2195,14 +2166,14 @@
       <c r="F1" s="3"/>
       <c r="G1" s="100"/>
       <c r="H1" s="100"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-    </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" ht="39">
+      <c r="I1" s="40"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -2210,47 +2181,47 @@
       <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="91" t="s">
+      <c r="F2" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="H2" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="35"/>
-      <c r="O3" s="32"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="B4" s="55" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="33"/>
+      <c r="O3" s="30"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="11"/>
@@ -2259,268 +2230,268 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B5" s="47"/>
+    <row r="5" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="45"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-    </row>
-    <row r="6" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B6" s="47"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+    </row>
+    <row r="6" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="45"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-    </row>
-    <row r="7" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B7" s="47"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+    </row>
+    <row r="7" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="45"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-    </row>
-    <row r="8" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B8" s="47"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+    </row>
+    <row r="8" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="45"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-    </row>
-    <row r="9" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B9" s="47"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+    </row>
+    <row r="9" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="45"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-    </row>
-    <row r="10" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B10" s="47"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+    </row>
+    <row r="10" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="45"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-    </row>
-    <row r="11" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B11" s="47"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+    </row>
+    <row r="11" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="45"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-    </row>
-    <row r="12" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B12" s="47"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+    </row>
+    <row r="12" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="45"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-    </row>
-    <row r="13" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B13" s="47"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+    </row>
+    <row r="13" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="45"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-    </row>
-    <row r="14" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B14" s="47"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+    </row>
+    <row r="14" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="45"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-    </row>
-    <row r="15" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B15" s="47"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+    </row>
+    <row r="15" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="45"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-    </row>
-    <row r="16" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B16" s="47"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+    </row>
+    <row r="16" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="45"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-    </row>
-    <row r="17" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B17" s="47"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+    </row>
+    <row r="17" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="45"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-    </row>
-    <row r="18" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B18" s="47"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+    </row>
+    <row r="18" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="45"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-    </row>
-    <row r="19" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B19" s="47"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+    </row>
+    <row r="19" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="45"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-    </row>
-    <row r="20" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B20" s="47"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+    </row>
+    <row r="20" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="45"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-    </row>
-    <row r="21" spans="1:15" s="19" customFormat="1" ht="43.5" customHeight="1">
+      <c r="H20" s="34"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+    </row>
+    <row r="21" spans="1:15" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="56" t="s">
-        <v>59</v>
+      <c r="B21" s="54" t="s">
+        <v>58</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-    </row>
-    <row r="22" spans="1:15" ht="26.25" customHeight="1">
-      <c r="B22" s="90" t="s">
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+    </row>
+    <row r="22" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="88" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="15"/>
@@ -2528,17 +2499,17 @@
       <c r="E22" s="16"/>
       <c r="F22" s="17"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="39"/>
-    </row>
-    <row r="23" spans="1:15" ht="39">
-      <c r="B23" s="43" t="s">
+      <c r="H22" s="37"/>
+    </row>
+    <row r="23" spans="1:15" ht="39" x14ac:dyDescent="0.3">
+      <c r="B23" s="41" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>8</v>
@@ -2549,55 +2520,55 @@
       <c r="G23" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="I23" s="92" t="s">
+      <c r="H23" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="O23" s="32"/>
-    </row>
-    <row r="24" spans="1:15" s="23" customFormat="1" ht="32.25" customHeight="1">
+      <c r="O23" s="30"/>
+    </row>
+    <row r="24" spans="1:15" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="20"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-    </row>
-    <row r="25" spans="1:15" s="14" customFormat="1" ht="18.75">
-      <c r="B25" s="47"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+    </row>
+    <row r="25" spans="1:15" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="45"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37">
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-    </row>
-    <row r="26" spans="1:15" s="14" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B26" s="90" t="s">
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+    </row>
+    <row r="26" spans="1:15" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="88" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="9"/>
@@ -2605,25 +2576,25 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37">
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35">
         <v>0.31</v>
       </c>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-    </row>
-    <row r="27" spans="1:15" s="14" customFormat="1" ht="36.6" customHeight="1">
-      <c r="B27" s="80" t="s">
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+    </row>
+    <row r="27" spans="1:15" s="14" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="78" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>8</v>
@@ -2634,78 +2605,78 @@
       <c r="G27" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="92" t="s">
+      <c r="H27" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="J27" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-    </row>
-    <row r="28" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1">
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+    </row>
+    <row r="28" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="50"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="20"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-    </row>
-    <row r="29" spans="1:15" s="14" customFormat="1" ht="18.75">
-      <c r="B29" s="47"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+    </row>
+    <row r="29" spans="1:15" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="45"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-    </row>
-    <row r="30" spans="1:15" s="14" customFormat="1" ht="21">
-      <c r="B30" s="90" t="s">
-        <v>63</v>
+      <c r="H29" s="34"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+    </row>
+    <row r="30" spans="1:15" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B30" s="88" t="s">
+        <v>61</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-    </row>
-    <row r="31" spans="1:15" s="14" customFormat="1" ht="39">
-      <c r="B31" s="80" t="s">
+      <c r="H30" s="34"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+    </row>
+    <row r="31" spans="1:15" s="14" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+      <c r="B31" s="78" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>8</v>
@@ -2716,192 +2687,192 @@
       <c r="G31" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="I31" s="92" t="s">
+      <c r="H31" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="J31" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-    </row>
-    <row r="32" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1">
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+    </row>
+    <row r="32" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="50"/>
+      <c r="C32" s="48"/>
       <c r="D32" s="20"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-    </row>
-    <row r="33" spans="1:18" s="14" customFormat="1" ht="18.75">
-      <c r="B33" s="47"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+    </row>
+    <row r="33" spans="1:18" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="45"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-    </row>
-    <row r="34" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B34" s="47"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+    </row>
+    <row r="34" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="45"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-    </row>
-    <row r="35" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B35" s="47"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+    </row>
+    <row r="35" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="45"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-    </row>
-    <row r="36" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B36" s="47"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+    </row>
+    <row r="36" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="45"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-    </row>
-    <row r="37" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B37" s="47"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+    </row>
+    <row r="37" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="45"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-    </row>
-    <row r="38" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B38" s="47"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+    </row>
+    <row r="38" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="45"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-    </row>
-    <row r="39" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B39" s="47"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+    </row>
+    <row r="39" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="45"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-    </row>
-    <row r="40" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B40" s="47"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+    </row>
+    <row r="40" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="45"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-    </row>
-    <row r="41" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B41" s="47"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+    </row>
+    <row r="41" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="45"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-    </row>
-    <row r="42" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1">
-      <c r="B42" s="47"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+    </row>
+    <row r="42" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="45"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-    </row>
-    <row r="43" spans="1:18" ht="26.25" customHeight="1">
-      <c r="A43" s="56" t="s">
+      <c r="H42" s="34"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+    </row>
+    <row r="43" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="47" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="24"/>
@@ -2909,149 +2880,143 @@
       <c r="E43" s="24"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54"/>
-    </row>
-    <row r="44" spans="1:18" ht="26.25" customHeight="1">
-      <c r="A44" s="56"/>
-      <c r="B44" s="49"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="52"/>
+    </row>
+    <row r="44" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="54"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="B45" s="89" t="s">
-        <v>53</v>
+      <c r="H44" s="51"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="52"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B45" s="87" t="s">
+        <v>52</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-    </row>
-    <row r="46" spans="1:18" ht="19.5">
-      <c r="A46" s="25" t="s">
+      <c r="H45" s="51"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="52"/>
+    </row>
+    <row r="46" spans="1:18" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="98">
+        <v>1</v>
+      </c>
+      <c r="B46" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="101"/>
+      <c r="J46" s="101"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="49"/>
+      <c r="B47" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="54"/>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="A47" s="51"/>
-      <c r="B47" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="27"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:18" s="104" customFormat="1">
-      <c r="A48" s="102">
+    <row r="48" spans="1:18" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="98">
         <v>2</v>
       </c>
-      <c r="B48" s="103" t="s">
+      <c r="B48" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="101"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="101"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="49"/>
+      <c r="B49" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="25"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="98">
+        <v>3</v>
+      </c>
+      <c r="B50" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="103"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="103"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="51"/>
-      <c r="B49" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:10" s="104" customFormat="1">
-      <c r="A50" s="102">
-        <v>3</v>
-      </c>
-      <c r="B50" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103"/>
-      <c r="J50" s="103"/>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="101"/>
+      <c r="J50" s="101"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B51" s="15"/>
-      <c r="D51" s="27"/>
+      <c r="D51" s="25"/>
       <c r="E51" s="4"/>
       <c r="G51" s="22"/>
     </row>
-    <row r="52" spans="1:10">
-      <c r="B52" s="28" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B52" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="B48:J48"/>
     <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B46:J46"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3078,1262 +3043,1262 @@
       <selection pane="bottomRight" activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="58" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="58" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="58" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="58" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="58" customWidth="1"/>
-    <col min="6" max="17" width="10.25" style="58" customWidth="1"/>
-    <col min="18" max="18" width="11.875" style="58" customWidth="1"/>
-    <col min="19" max="19" width="11.875" style="97" customWidth="1"/>
-    <col min="20" max="20" width="10.25" style="58" customWidth="1"/>
-    <col min="21" max="23" width="10.5" style="76" customWidth="1"/>
-    <col min="24" max="24" width="11.125" style="76" customWidth="1"/>
-    <col min="25" max="27" width="11" style="77" customWidth="1"/>
-    <col min="28" max="31" width="11.125" style="76" customWidth="1"/>
-    <col min="32" max="33" width="9.375" style="78" customWidth="1"/>
-    <col min="34" max="34" width="11.125" style="78" customWidth="1"/>
-    <col min="35" max="37" width="11.125" style="79" customWidth="1"/>
-    <col min="38" max="16384" width="8.875" style="58"/>
+    <col min="1" max="1" width="11" style="56" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="56" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="56" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="56" customWidth="1"/>
+    <col min="6" max="17" width="10.25" style="56" customWidth="1"/>
+    <col min="18" max="18" width="11.875" style="56" customWidth="1"/>
+    <col min="19" max="19" width="11.875" style="95" customWidth="1"/>
+    <col min="20" max="20" width="10.25" style="56" customWidth="1"/>
+    <col min="21" max="23" width="10.5" style="74" customWidth="1"/>
+    <col min="24" max="24" width="11.125" style="74" customWidth="1"/>
+    <col min="25" max="27" width="11" style="75" customWidth="1"/>
+    <col min="28" max="31" width="11.125" style="74" customWidth="1"/>
+    <col min="32" max="33" width="9.375" style="76" customWidth="1"/>
+    <col min="34" max="34" width="11.125" style="76" customWidth="1"/>
+    <col min="35" max="37" width="11.125" style="77" customWidth="1"/>
+    <col min="38" max="16384" width="8.875" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="42.75" customHeight="1">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="U1" s="101" t="s">
+    <row r="1" spans="1:37" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="U1" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="101"/>
-      <c r="AB1" s="101" t="s">
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102"/>
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="102"/>
+      <c r="AB1" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="101"/>
-      <c r="AD1" s="101"/>
-      <c r="AE1" s="101"/>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="101"/>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="101"/>
-      <c r="AJ1" s="101"/>
-      <c r="AK1" s="101"/>
-    </row>
-    <row r="2" spans="1:37" ht="78">
-      <c r="A2" s="81" t="s">
+      <c r="AC1" s="102"/>
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
+      <c r="AH1" s="102"/>
+      <c r="AI1" s="102"/>
+      <c r="AJ1" s="102"/>
+      <c r="AK1" s="102"/>
+    </row>
+    <row r="2" spans="1:37" ht="78" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="J2" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="84" t="s">
+      <c r="N2" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="85" t="s">
+      <c r="O2" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="62" t="s">
+      <c r="P2" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="62" t="s">
+      <c r="Q2" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="62" t="s">
+      <c r="R2" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="98" t="s">
+      <c r="S2" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="83" t="s">
+      <c r="T2" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="64" t="s">
+      <c r="U2" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="64" t="s">
+      <c r="V2" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="64" t="s">
+      <c r="W2" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="64" t="s">
+      <c r="X2" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="86" t="s">
+      <c r="Y2" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="86" t="s">
+      <c r="Z2" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="86" t="s">
+      <c r="AA2" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="64" t="s">
+      <c r="AB2" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="AC2" s="64" t="s">
+      <c r="AC2" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="AD2" s="64" t="s">
+      <c r="AD2" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="AE2" s="64" t="s">
+      <c r="AE2" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="AF2" s="65" t="s">
+      <c r="AF2" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="AG2" s="65" t="s">
+      <c r="AG2" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="AH2" s="65" t="s">
+      <c r="AH2" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="AI2" s="66" t="s">
+      <c r="AI2" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="AJ2" s="66" t="s">
+      <c r="AJ2" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="AK2" s="66" t="s">
+      <c r="AK2" s="64" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="18" customHeight="1">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="74"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="75"/>
-    </row>
-    <row r="4" spans="1:37" ht="18" customHeight="1">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="73"/>
-      <c r="AE4" s="73"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="75"/>
-      <c r="AJ4" s="75"/>
-      <c r="AK4" s="75"/>
-    </row>
-    <row r="5" spans="1:37" ht="18" customHeight="1">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="99"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="73"/>
-      <c r="AD5" s="73"/>
-      <c r="AE5" s="73"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="75"/>
-      <c r="AJ5" s="75"/>
-      <c r="AK5" s="75"/>
-    </row>
-    <row r="6" spans="1:37" ht="18" customHeight="1">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="74"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="73"/>
-      <c r="AD6" s="73"/>
-      <c r="AE6" s="73"/>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="74"/>
-      <c r="AH6" s="74"/>
-      <c r="AI6" s="75"/>
-      <c r="AJ6" s="75"/>
-      <c r="AK6" s="75"/>
-    </row>
-    <row r="7" spans="1:37" ht="18" customHeight="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="99"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="73"/>
-      <c r="AE7" s="73"/>
-      <c r="AF7" s="74"/>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="74"/>
-      <c r="AI7" s="75"/>
-      <c r="AJ7" s="75"/>
-      <c r="AK7" s="75"/>
-    </row>
-    <row r="8" spans="1:37" ht="18" customHeight="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="99"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="73"/>
-      <c r="AD8" s="73"/>
-      <c r="AE8" s="73"/>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="74"/>
-      <c r="AI8" s="75"/>
-      <c r="AJ8" s="75"/>
-      <c r="AK8" s="75"/>
-    </row>
-    <row r="9" spans="1:37" ht="18" customHeight="1">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="74"/>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="75"/>
-      <c r="AK9" s="75"/>
-    </row>
-    <row r="10" spans="1:37" ht="18" customHeight="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="75"/>
-      <c r="AK10" s="75"/>
-    </row>
-    <row r="11" spans="1:37" ht="18" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="73"/>
-      <c r="AD11" s="73"/>
-      <c r="AE11" s="73"/>
-      <c r="AF11" s="74"/>
-      <c r="AG11" s="74"/>
-      <c r="AH11" s="74"/>
-      <c r="AI11" s="75"/>
-      <c r="AJ11" s="75"/>
-      <c r="AK11" s="75"/>
-    </row>
-    <row r="12" spans="1:37" ht="18" customHeight="1">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="73"/>
-      <c r="AE12" s="73"/>
-      <c r="AF12" s="74"/>
-      <c r="AG12" s="74"/>
-      <c r="AH12" s="74"/>
-      <c r="AI12" s="75"/>
-      <c r="AJ12" s="75"/>
-      <c r="AK12" s="75"/>
-    </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="74"/>
-      <c r="AA13" s="74"/>
-      <c r="AB13" s="72"/>
-      <c r="AC13" s="73"/>
-      <c r="AD13" s="73"/>
-      <c r="AE13" s="73"/>
-      <c r="AF13" s="74"/>
-      <c r="AG13" s="74"/>
-      <c r="AH13" s="74"/>
-      <c r="AI13" s="75"/>
-      <c r="AJ13" s="75"/>
-      <c r="AK13" s="75"/>
-    </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="73"/>
-      <c r="AD14" s="73"/>
-      <c r="AE14" s="73"/>
-      <c r="AF14" s="74"/>
-      <c r="AG14" s="74"/>
-      <c r="AH14" s="74"/>
-      <c r="AI14" s="75"/>
-      <c r="AJ14" s="75"/>
-      <c r="AK14" s="75"/>
-    </row>
-    <row r="15" spans="1:37" ht="18" customHeight="1">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="99"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="74"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="73"/>
-      <c r="AD15" s="73"/>
-      <c r="AE15" s="73"/>
-      <c r="AF15" s="74"/>
-      <c r="AG15" s="74"/>
-      <c r="AH15" s="74"/>
-      <c r="AI15" s="75"/>
-      <c r="AJ15" s="75"/>
-      <c r="AK15" s="75"/>
-    </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="74"/>
-      <c r="AA16" s="74"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="74"/>
-      <c r="AH16" s="74"/>
-      <c r="AI16" s="75"/>
-      <c r="AJ16" s="75"/>
-      <c r="AK16" s="75"/>
-    </row>
-    <row r="17" spans="1:37" ht="18" customHeight="1">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="74"/>
-      <c r="AA17" s="74"/>
-      <c r="AB17" s="72"/>
-      <c r="AC17" s="73"/>
-      <c r="AD17" s="73"/>
-      <c r="AE17" s="73"/>
-      <c r="AF17" s="74"/>
-      <c r="AG17" s="74"/>
-      <c r="AH17" s="74"/>
-      <c r="AI17" s="75"/>
-      <c r="AJ17" s="75"/>
-      <c r="AK17" s="75"/>
-    </row>
-    <row r="18" spans="1:37" ht="18" customHeight="1">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="74"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="73"/>
-      <c r="AD18" s="73"/>
-      <c r="AE18" s="73"/>
-      <c r="AF18" s="74"/>
-      <c r="AG18" s="74"/>
-      <c r="AH18" s="74"/>
-      <c r="AI18" s="75"/>
-      <c r="AJ18" s="75"/>
-      <c r="AK18" s="75"/>
-    </row>
-    <row r="19" spans="1:37" ht="18" customHeight="1">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="74"/>
-      <c r="Z19" s="74"/>
-      <c r="AA19" s="74"/>
-      <c r="AB19" s="72"/>
-      <c r="AC19" s="73"/>
-      <c r="AD19" s="73"/>
-      <c r="AE19" s="73"/>
-      <c r="AF19" s="74"/>
-      <c r="AG19" s="74"/>
-      <c r="AH19" s="74"/>
-      <c r="AI19" s="75"/>
-      <c r="AJ19" s="75"/>
-      <c r="AK19" s="75"/>
-    </row>
-    <row r="20" spans="1:37" ht="18" customHeight="1">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="74"/>
-      <c r="AA20" s="74"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="73"/>
-      <c r="AD20" s="73"/>
-      <c r="AE20" s="73"/>
-      <c r="AF20" s="74"/>
-      <c r="AG20" s="74"/>
-      <c r="AH20" s="74"/>
-      <c r="AI20" s="75"/>
-      <c r="AJ20" s="75"/>
-      <c r="AK20" s="75"/>
-    </row>
-    <row r="21" spans="1:37" ht="18" customHeight="1">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="99"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="74"/>
-      <c r="Z21" s="74"/>
-      <c r="AA21" s="74"/>
-      <c r="AB21" s="72"/>
-      <c r="AC21" s="73"/>
-      <c r="AD21" s="73"/>
-      <c r="AE21" s="73"/>
-      <c r="AF21" s="74"/>
-      <c r="AG21" s="74"/>
-      <c r="AH21" s="74"/>
-      <c r="AI21" s="75"/>
-      <c r="AJ21" s="75"/>
-      <c r="AK21" s="75"/>
-    </row>
-    <row r="22" spans="1:37" ht="18" customHeight="1">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="99"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="74"/>
-      <c r="Z22" s="74"/>
-      <c r="AA22" s="74"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="73"/>
-      <c r="AD22" s="73"/>
-      <c r="AE22" s="73"/>
-      <c r="AF22" s="74"/>
-      <c r="AG22" s="74"/>
-      <c r="AH22" s="74"/>
-      <c r="AI22" s="75"/>
-      <c r="AJ22" s="75"/>
-      <c r="AK22" s="75"/>
-    </row>
-    <row r="23" spans="1:37" ht="18" customHeight="1">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="99"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="73"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="74"/>
-      <c r="Z23" s="74"/>
-      <c r="AA23" s="74"/>
-      <c r="AB23" s="72"/>
-      <c r="AC23" s="73"/>
-      <c r="AD23" s="73"/>
-      <c r="AE23" s="73"/>
-      <c r="AF23" s="74"/>
-      <c r="AG23" s="74"/>
-      <c r="AH23" s="74"/>
-      <c r="AI23" s="75"/>
-      <c r="AJ23" s="75"/>
-      <c r="AK23" s="75"/>
-    </row>
-    <row r="24" spans="1:37" ht="18" customHeight="1">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="99"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="73"/>
-      <c r="W24" s="73"/>
-      <c r="X24" s="73"/>
-      <c r="Y24" s="74"/>
-      <c r="Z24" s="74"/>
-      <c r="AA24" s="74"/>
-      <c r="AB24" s="72"/>
-      <c r="AC24" s="73"/>
-      <c r="AD24" s="73"/>
-      <c r="AE24" s="73"/>
-      <c r="AF24" s="74"/>
-      <c r="AG24" s="74"/>
-      <c r="AH24" s="74"/>
-      <c r="AI24" s="75"/>
-      <c r="AJ24" s="75"/>
-      <c r="AK24" s="75"/>
-    </row>
-    <row r="25" spans="1:37" ht="18" customHeight="1">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="73"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="73"/>
-      <c r="Y25" s="74"/>
-      <c r="Z25" s="74"/>
-      <c r="AA25" s="74"/>
-      <c r="AB25" s="72"/>
-      <c r="AC25" s="73"/>
-      <c r="AD25" s="73"/>
-      <c r="AE25" s="73"/>
-      <c r="AF25" s="74"/>
-      <c r="AG25" s="74"/>
-      <c r="AH25" s="74"/>
-      <c r="AI25" s="75"/>
-      <c r="AJ25" s="75"/>
-      <c r="AK25" s="75"/>
-    </row>
-    <row r="26" spans="1:37" ht="18" customHeight="1">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="73"/>
-      <c r="W26" s="73"/>
-      <c r="X26" s="73"/>
-      <c r="Y26" s="74"/>
-      <c r="Z26" s="74"/>
-      <c r="AA26" s="74"/>
-      <c r="AB26" s="72"/>
-      <c r="AC26" s="73"/>
-      <c r="AD26" s="73"/>
-      <c r="AE26" s="73"/>
-      <c r="AF26" s="74"/>
-      <c r="AG26" s="74"/>
-      <c r="AH26" s="74"/>
-      <c r="AI26" s="75"/>
-      <c r="AJ26" s="75"/>
-      <c r="AK26" s="75"/>
-    </row>
-    <row r="27" spans="1:37" ht="18" customHeight="1">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="99"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="73"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="73"/>
-      <c r="Y27" s="74"/>
-      <c r="Z27" s="74"/>
-      <c r="AA27" s="74"/>
-      <c r="AB27" s="72"/>
-      <c r="AC27" s="73"/>
-      <c r="AD27" s="73"/>
-      <c r="AE27" s="73"/>
-      <c r="AF27" s="74"/>
-      <c r="AG27" s="74"/>
-      <c r="AH27" s="74"/>
-      <c r="AI27" s="75"/>
-      <c r="AJ27" s="75"/>
-      <c r="AK27" s="75"/>
-    </row>
-    <row r="28" spans="1:37" ht="18" customHeight="1">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="69"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="73"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="73"/>
-      <c r="Y28" s="74"/>
-      <c r="Z28" s="74"/>
-      <c r="AA28" s="74"/>
-      <c r="AB28" s="72"/>
-      <c r="AC28" s="73"/>
-      <c r="AD28" s="73"/>
-      <c r="AE28" s="73"/>
-      <c r="AF28" s="74"/>
-      <c r="AG28" s="74"/>
-      <c r="AH28" s="74"/>
-      <c r="AI28" s="75"/>
-      <c r="AJ28" s="75"/>
-      <c r="AK28" s="75"/>
-    </row>
-    <row r="29" spans="1:37" ht="18" customHeight="1">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="73"/>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="74"/>
-      <c r="Z29" s="74"/>
-      <c r="AA29" s="74"/>
-      <c r="AB29" s="72"/>
-      <c r="AC29" s="73"/>
-      <c r="AD29" s="73"/>
-      <c r="AE29" s="73"/>
-      <c r="AF29" s="74"/>
-      <c r="AG29" s="74"/>
-      <c r="AH29" s="74"/>
-      <c r="AI29" s="75"/>
-      <c r="AJ29" s="75"/>
-      <c r="AK29" s="75"/>
-    </row>
-    <row r="30" spans="1:37" ht="18" customHeight="1">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="99"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="72"/>
-      <c r="V30" s="73"/>
-      <c r="W30" s="73"/>
-      <c r="X30" s="73"/>
-      <c r="Y30" s="74"/>
-      <c r="Z30" s="74"/>
-      <c r="AA30" s="74"/>
-      <c r="AB30" s="72"/>
-      <c r="AC30" s="73"/>
-      <c r="AD30" s="73"/>
-      <c r="AE30" s="73"/>
-      <c r="AF30" s="74"/>
-      <c r="AG30" s="74"/>
-      <c r="AH30" s="74"/>
-      <c r="AI30" s="75"/>
-      <c r="AJ30" s="75"/>
-      <c r="AK30" s="75"/>
-    </row>
-    <row r="33" spans="2:21">
-      <c r="B33" s="87"/>
-    </row>
-    <row r="34" spans="2:21" ht="19.5">
-      <c r="U34" s="88" t="s">
+    <row r="3" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+    </row>
+    <row r="4" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+    </row>
+    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="71"/>
+      <c r="AD5" s="71"/>
+      <c r="AE5" s="71"/>
+      <c r="AF5" s="72"/>
+      <c r="AG5" s="72"/>
+      <c r="AH5" s="72"/>
+      <c r="AI5" s="73"/>
+      <c r="AJ5" s="73"/>
+      <c r="AK5" s="73"/>
+    </row>
+    <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="73"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="73"/>
+    </row>
+    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="72"/>
+      <c r="AI7" s="73"/>
+      <c r="AJ7" s="73"/>
+      <c r="AK7" s="73"/>
+    </row>
+    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="73"/>
+      <c r="AJ8" s="73"/>
+      <c r="AK8" s="73"/>
+    </row>
+    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="72"/>
+      <c r="AI9" s="73"/>
+      <c r="AJ9" s="73"/>
+      <c r="AK9" s="73"/>
+    </row>
+    <row r="10" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="71"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="72"/>
+      <c r="AI10" s="73"/>
+      <c r="AJ10" s="73"/>
+      <c r="AK10" s="73"/>
+    </row>
+    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="71"/>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="72"/>
+      <c r="AI11" s="73"/>
+      <c r="AJ11" s="73"/>
+      <c r="AK11" s="73"/>
+    </row>
+    <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="72"/>
+      <c r="AG12" s="72"/>
+      <c r="AH12" s="72"/>
+      <c r="AI12" s="73"/>
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="73"/>
+    </row>
+    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="71"/>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="72"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="73"/>
+      <c r="AJ13" s="73"/>
+      <c r="AK13" s="73"/>
+    </row>
+    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="71"/>
+      <c r="AF14" s="72"/>
+      <c r="AG14" s="72"/>
+      <c r="AH14" s="72"/>
+      <c r="AI14" s="73"/>
+      <c r="AJ14" s="73"/>
+      <c r="AK14" s="73"/>
+    </row>
+    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="71"/>
+      <c r="AF15" s="72"/>
+      <c r="AG15" s="72"/>
+      <c r="AH15" s="72"/>
+      <c r="AI15" s="73"/>
+      <c r="AJ15" s="73"/>
+      <c r="AK15" s="73"/>
+    </row>
+    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="71"/>
+      <c r="AF16" s="72"/>
+      <c r="AG16" s="72"/>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="73"/>
+      <c r="AJ16" s="73"/>
+      <c r="AK16" s="73"/>
+    </row>
+    <row r="17" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="97"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="71"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="72"/>
+      <c r="AG17" s="72"/>
+      <c r="AH17" s="72"/>
+      <c r="AI17" s="73"/>
+      <c r="AJ17" s="73"/>
+      <c r="AK17" s="73"/>
+    </row>
+    <row r="18" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="97"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="70"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="71"/>
+      <c r="AE18" s="71"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="72"/>
+      <c r="AI18" s="73"/>
+      <c r="AJ18" s="73"/>
+      <c r="AK18" s="73"/>
+    </row>
+    <row r="19" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="97"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="71"/>
+      <c r="AD19" s="71"/>
+      <c r="AE19" s="71"/>
+      <c r="AF19" s="72"/>
+      <c r="AG19" s="72"/>
+      <c r="AH19" s="72"/>
+      <c r="AI19" s="73"/>
+      <c r="AJ19" s="73"/>
+      <c r="AK19" s="73"/>
+    </row>
+    <row r="20" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="97"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="72"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="72"/>
+      <c r="AI20" s="73"/>
+      <c r="AJ20" s="73"/>
+      <c r="AK20" s="73"/>
+    </row>
+    <row r="21" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="72"/>
+      <c r="AA21" s="72"/>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="71"/>
+      <c r="AE21" s="71"/>
+      <c r="AF21" s="72"/>
+      <c r="AG21" s="72"/>
+      <c r="AH21" s="72"/>
+      <c r="AI21" s="73"/>
+      <c r="AJ21" s="73"/>
+      <c r="AK21" s="73"/>
+    </row>
+    <row r="22" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="97"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="71"/>
+      <c r="AE22" s="71"/>
+      <c r="AF22" s="72"/>
+      <c r="AG22" s="72"/>
+      <c r="AH22" s="72"/>
+      <c r="AI22" s="73"/>
+      <c r="AJ22" s="73"/>
+      <c r="AK22" s="73"/>
+    </row>
+    <row r="23" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="72"/>
+      <c r="AA23" s="72"/>
+      <c r="AB23" s="70"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="71"/>
+      <c r="AE23" s="71"/>
+      <c r="AF23" s="72"/>
+      <c r="AG23" s="72"/>
+      <c r="AH23" s="72"/>
+      <c r="AI23" s="73"/>
+      <c r="AJ23" s="73"/>
+      <c r="AK23" s="73"/>
+    </row>
+    <row r="24" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="97"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="70"/>
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="71"/>
+      <c r="AE24" s="71"/>
+      <c r="AF24" s="72"/>
+      <c r="AG24" s="72"/>
+      <c r="AH24" s="72"/>
+      <c r="AI24" s="73"/>
+      <c r="AJ24" s="73"/>
+      <c r="AK24" s="73"/>
+    </row>
+    <row r="25" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="97"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="72"/>
+      <c r="Z25" s="72"/>
+      <c r="AA25" s="72"/>
+      <c r="AB25" s="70"/>
+      <c r="AC25" s="71"/>
+      <c r="AD25" s="71"/>
+      <c r="AE25" s="71"/>
+      <c r="AF25" s="72"/>
+      <c r="AG25" s="72"/>
+      <c r="AH25" s="72"/>
+      <c r="AI25" s="73"/>
+      <c r="AJ25" s="73"/>
+      <c r="AK25" s="73"/>
+    </row>
+    <row r="26" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="71"/>
+      <c r="Y26" s="72"/>
+      <c r="Z26" s="72"/>
+      <c r="AA26" s="72"/>
+      <c r="AB26" s="70"/>
+      <c r="AC26" s="71"/>
+      <c r="AD26" s="71"/>
+      <c r="AE26" s="71"/>
+      <c r="AF26" s="72"/>
+      <c r="AG26" s="72"/>
+      <c r="AH26" s="72"/>
+      <c r="AI26" s="73"/>
+      <c r="AJ26" s="73"/>
+      <c r="AK26" s="73"/>
+    </row>
+    <row r="27" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="97"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="71"/>
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="72"/>
+      <c r="AA27" s="72"/>
+      <c r="AB27" s="70"/>
+      <c r="AC27" s="71"/>
+      <c r="AD27" s="71"/>
+      <c r="AE27" s="71"/>
+      <c r="AF27" s="72"/>
+      <c r="AG27" s="72"/>
+      <c r="AH27" s="72"/>
+      <c r="AI27" s="73"/>
+      <c r="AJ27" s="73"/>
+      <c r="AK27" s="73"/>
+    </row>
+    <row r="28" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="97"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="72"/>
+      <c r="Z28" s="72"/>
+      <c r="AA28" s="72"/>
+      <c r="AB28" s="70"/>
+      <c r="AC28" s="71"/>
+      <c r="AD28" s="71"/>
+      <c r="AE28" s="71"/>
+      <c r="AF28" s="72"/>
+      <c r="AG28" s="72"/>
+      <c r="AH28" s="72"/>
+      <c r="AI28" s="73"/>
+      <c r="AJ28" s="73"/>
+      <c r="AK28" s="73"/>
+    </row>
+    <row r="29" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="97"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="70"/>
+      <c r="AC29" s="71"/>
+      <c r="AD29" s="71"/>
+      <c r="AE29" s="71"/>
+      <c r="AF29" s="72"/>
+      <c r="AG29" s="72"/>
+      <c r="AH29" s="72"/>
+      <c r="AI29" s="73"/>
+      <c r="AJ29" s="73"/>
+      <c r="AK29" s="73"/>
+    </row>
+    <row r="30" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="97"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="72"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="72"/>
+      <c r="AB30" s="70"/>
+      <c r="AC30" s="71"/>
+      <c r="AD30" s="71"/>
+      <c r="AE30" s="71"/>
+      <c r="AF30" s="72"/>
+      <c r="AG30" s="72"/>
+      <c r="AH30" s="72"/>
+      <c r="AI30" s="73"/>
+      <c r="AJ30" s="73"/>
+      <c r="AK30" s="73"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="85"/>
+    </row>
+    <row r="34" spans="2:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="U34" s="86" t="s">
         <v>47</v>
       </c>
     </row>

--- a/PhoenixCI/Excel_Template/40013.xlsx
+++ b/PhoenixCI/Excel_Template/40013.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GitHub\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 風管組業務\B. 資訊需求單\20190502 盤後系統需求\3. 調整template\報表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18900" windowHeight="7935"/>
+    <workbookView xWindow="238" yWindow="50" windowWidth="18895" windowHeight="7939"/>
   </bookViews>
   <sheets>
     <sheet name="rpt_future" sheetId="10" r:id="rId1"/>
@@ -2133,27 +2133,27 @@
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.7" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="9" customWidth="1"/>
     <col min="3" max="3" width="19" style="9" customWidth="1"/>
-    <col min="4" max="4" width="21.25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="9" customWidth="1"/>
-    <col min="6" max="7" width="19.75" style="9" customWidth="1"/>
-    <col min="8" max="8" width="19.75" style="30" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="30" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="30" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="9" customWidth="1"/>
+    <col min="6" max="7" width="19.77734375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" style="30" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="30" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" style="30" customWidth="1"/>
     <col min="11" max="11" width="11" style="30" customWidth="1"/>
-    <col min="12" max="13" width="9.75" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.77734375" style="30" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="30"/>
     <col min="15" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="43.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -2173,7 +2173,7 @@
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
     </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="36.35" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -2204,7 +2204,7 @@
       <c r="N2" s="32"/>
       <c r="O2" s="32"/>
     </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2220,7 +2220,7 @@
       <c r="L3" s="33"/>
       <c r="O3" s="30"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B4" s="53" t="s">
         <v>13</v>
       </c>
@@ -2230,7 +2230,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5" s="45"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -2245,7 +2245,7 @@
       <c r="M5" s="34"/>
       <c r="N5" s="34"/>
     </row>
-    <row r="6" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" s="45"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -2260,7 +2260,7 @@
       <c r="M6" s="34"/>
       <c r="N6" s="34"/>
     </row>
-    <row r="7" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" s="45"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -2275,7 +2275,7 @@
       <c r="M7" s="34"/>
       <c r="N7" s="34"/>
     </row>
-    <row r="8" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B8" s="45"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -2290,7 +2290,7 @@
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
     </row>
-    <row r="9" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" s="45"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -2305,7 +2305,7 @@
       <c r="M9" s="34"/>
       <c r="N9" s="34"/>
     </row>
-    <row r="10" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="45"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -2320,7 +2320,7 @@
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
     </row>
-    <row r="11" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="45"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -2335,7 +2335,7 @@
       <c r="M11" s="34"/>
       <c r="N11" s="34"/>
     </row>
-    <row r="12" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" s="45"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2350,7 +2350,7 @@
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
     </row>
-    <row r="13" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" s="45"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2365,7 +2365,7 @@
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
     </row>
-    <row r="14" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" s="45"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -2380,7 +2380,7 @@
       <c r="M14" s="34"/>
       <c r="N14" s="34"/>
     </row>
-    <row r="15" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" s="45"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2395,7 +2395,7 @@
       <c r="M15" s="34"/>
       <c r="N15" s="34"/>
     </row>
-    <row r="16" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" s="45"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2410,7 +2410,7 @@
       <c r="M16" s="34"/>
       <c r="N16" s="34"/>
     </row>
-    <row r="17" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="45"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -2425,7 +2425,7 @@
       <c r="M17" s="34"/>
       <c r="N17" s="34"/>
     </row>
-    <row r="18" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="45"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -2440,7 +2440,7 @@
       <c r="M18" s="34"/>
       <c r="N18" s="34"/>
     </row>
-    <row r="19" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="45"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -2455,7 +2455,7 @@
       <c r="M19" s="34"/>
       <c r="N19" s="34"/>
     </row>
-    <row r="20" spans="1:15" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="45"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2470,7 +2470,7 @@
       <c r="M20" s="34"/>
       <c r="N20" s="34"/>
     </row>
-    <row r="21" spans="1:15" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" s="19" customFormat="1" ht="43.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>6</v>
       </c>
@@ -2490,7 +2490,7 @@
       <c r="M21" s="36"/>
       <c r="N21" s="36"/>
     </row>
-    <row r="22" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="26.3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="88" t="s">
         <v>49</v>
       </c>
@@ -2501,7 +2501,7 @@
       <c r="G22" s="18"/>
       <c r="H22" s="37"/>
     </row>
-    <row r="23" spans="1:15" ht="39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="36.35" x14ac:dyDescent="0.35">
       <c r="B23" s="41" t="s">
         <v>2</v>
       </c>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="O23" s="30"/>
     </row>
-    <row r="24" spans="1:15" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
         <v>7</v>
@@ -2550,7 +2550,7 @@
       <c r="N24" s="38"/>
       <c r="O24" s="38"/>
     </row>
-    <row r="25" spans="1:15" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="14" customFormat="1" ht="17.55" x14ac:dyDescent="0.3">
       <c r="B25" s="45"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2567,7 +2567,7 @@
       <c r="M25" s="34"/>
       <c r="N25" s="34"/>
     </row>
-    <row r="26" spans="1:15" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="14" customFormat="1" ht="22.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="88" t="s">
         <v>50</v>
       </c>
@@ -2586,7 +2586,7 @@
       <c r="M26" s="34"/>
       <c r="N26" s="34"/>
     </row>
-    <row r="27" spans="1:15" s="14" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="14" customFormat="1" ht="36.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="78" t="s">
         <v>2</v>
       </c>
@@ -2619,7 +2619,7 @@
       <c r="M27" s="34"/>
       <c r="N27" s="34"/>
     </row>
-    <row r="28" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>7</v>
       </c>
@@ -2636,7 +2636,7 @@
       <c r="M28" s="34"/>
       <c r="N28" s="34"/>
     </row>
-    <row r="29" spans="1:15" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="14" customFormat="1" ht="17.55" x14ac:dyDescent="0.3">
       <c r="B29" s="45"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -2651,7 +2651,7 @@
       <c r="M29" s="34"/>
       <c r="N29" s="34"/>
     </row>
-    <row r="30" spans="1:15" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="14" customFormat="1" ht="22.55" x14ac:dyDescent="0.3">
       <c r="B30" s="88" t="s">
         <v>61</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="M30" s="34"/>
       <c r="N30" s="34"/>
     </row>
-    <row r="31" spans="1:15" s="14" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="14" customFormat="1" ht="36.35" x14ac:dyDescent="0.3">
       <c r="B31" s="78" t="s">
         <v>2</v>
       </c>
@@ -2701,7 +2701,7 @@
       <c r="M31" s="34"/>
       <c r="N31" s="34"/>
     </row>
-    <row r="32" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>7</v>
       </c>
@@ -2718,7 +2718,7 @@
       <c r="M32" s="34"/>
       <c r="N32" s="34"/>
     </row>
-    <row r="33" spans="1:18" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="14" customFormat="1" ht="17.55" x14ac:dyDescent="0.3">
       <c r="B33" s="45"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -2733,7 +2733,7 @@
       <c r="M33" s="34"/>
       <c r="N33" s="34"/>
     </row>
-    <row r="34" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="45"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -2748,7 +2748,7 @@
       <c r="M34" s="34"/>
       <c r="N34" s="34"/>
     </row>
-    <row r="35" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="45"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -2763,7 +2763,7 @@
       <c r="M35" s="34"/>
       <c r="N35" s="34"/>
     </row>
-    <row r="36" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="45"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2778,7 +2778,7 @@
       <c r="M36" s="34"/>
       <c r="N36" s="34"/>
     </row>
-    <row r="37" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="45"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -2793,7 +2793,7 @@
       <c r="M37" s="34"/>
       <c r="N37" s="34"/>
     </row>
-    <row r="38" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="45"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -2808,7 +2808,7 @@
       <c r="M38" s="34"/>
       <c r="N38" s="34"/>
     </row>
-    <row r="39" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="45"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -2823,7 +2823,7 @@
       <c r="M39" s="34"/>
       <c r="N39" s="34"/>
     </row>
-    <row r="40" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" s="45"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -2838,7 +2838,7 @@
       <c r="M40" s="34"/>
       <c r="N40" s="34"/>
     </row>
-    <row r="41" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="45"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -2853,7 +2853,7 @@
       <c r="M41" s="34"/>
       <c r="N41" s="34"/>
     </row>
-    <row r="42" spans="1:18" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" s="14" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="45"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -2868,7 +2868,7 @@
       <c r="M42" s="34"/>
       <c r="N42" s="34"/>
     </row>
-    <row r="43" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="26.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="54" t="s">
         <v>48</v>
       </c>
@@ -2892,7 +2892,7 @@
       <c r="Q43" s="52"/>
       <c r="R43" s="52"/>
     </row>
-    <row r="44" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="26.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="54"/>
       <c r="B44" s="47"/>
       <c r="C44" s="24"/>
@@ -2912,7 +2912,7 @@
       <c r="Q44" s="52"/>
       <c r="R44" s="52"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B45" s="87" t="s">
         <v>52</v>
       </c>
@@ -2931,7 +2931,7 @@
       <c r="Q45" s="52"/>
       <c r="R45" s="52"/>
     </row>
-    <row r="46" spans="1:18" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" s="99" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="98">
         <v>1</v>
       </c>
@@ -2955,7 +2955,7 @@
       <c r="D47" s="25"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:18" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" s="99" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="98">
         <v>2</v>
       </c>
@@ -2979,7 +2979,7 @@
       <c r="D49" s="25"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="98">
         <v>3</v>
       </c>
@@ -2995,13 +2995,13 @@
       <c r="I50" s="101"/>
       <c r="J50" s="101"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15"/>
       <c r="D51" s="25"/>
       <c r="E51" s="4"/>
       <c r="G51" s="22"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B52" s="26" t="s">
         <v>12</v>
       </c>
@@ -3025,7 +3025,6 @@
   <headerFooter alignWithMargins="0">
     <oddHeader xml:space="preserve">&amp;C&amp;"標楷體,粗體"&amp;28下午6時15分收盤期貨契約保證金狀況表&amp;R&amp;"標楷體,標準"&amp;16
 </oddHeader>
-    <oddFooter xml:space="preserve">&amp;R&amp;"標楷體,標準"&amp;8檔案：&amp;"Times New Roman,標準"&amp;F&amp;"標楷體,標準" </oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3036,35 +3035,34 @@
   <dimension ref="A1:AK34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="T1" sqref="T1:T1048576"/>
-      <selection pane="topRight" activeCell="T1" sqref="T1:T1048576"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
-      <selection pane="bottomRight" activeCell="S1" sqref="S1:S1048576"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" style="56" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="56" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="56" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="56" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="56" customWidth="1"/>
-    <col min="6" max="17" width="10.25" style="56" customWidth="1"/>
-    <col min="18" max="18" width="11.875" style="56" customWidth="1"/>
-    <col min="19" max="19" width="11.875" style="95" customWidth="1"/>
-    <col min="20" max="20" width="10.25" style="56" customWidth="1"/>
-    <col min="21" max="23" width="10.5" style="74" customWidth="1"/>
-    <col min="24" max="24" width="11.125" style="74" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="56" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="56" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="56" customWidth="1"/>
+    <col min="6" max="17" width="10.21875" style="56" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" style="56" customWidth="1"/>
+    <col min="19" max="19" width="11.88671875" style="95" customWidth="1"/>
+    <col min="20" max="20" width="10.21875" style="56" customWidth="1"/>
+    <col min="21" max="23" width="10.44140625" style="74" customWidth="1"/>
+    <col min="24" max="24" width="11.109375" style="74" customWidth="1"/>
     <col min="25" max="27" width="11" style="75" customWidth="1"/>
-    <col min="28" max="31" width="11.125" style="74" customWidth="1"/>
-    <col min="32" max="33" width="9.375" style="76" customWidth="1"/>
-    <col min="34" max="34" width="11.125" style="76" customWidth="1"/>
-    <col min="35" max="37" width="11.125" style="77" customWidth="1"/>
-    <col min="38" max="16384" width="8.875" style="56"/>
+    <col min="28" max="31" width="11.109375" style="74" customWidth="1"/>
+    <col min="32" max="33" width="9.33203125" style="76" customWidth="1"/>
+    <col min="34" max="34" width="11.109375" style="76" customWidth="1"/>
+    <col min="35" max="37" width="11.109375" style="77" customWidth="1"/>
+    <col min="38" max="16384" width="8.88671875" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="55"/>
       <c r="B1" s="55"/>
       <c r="U1" s="102" t="s">
@@ -3089,7 +3087,7 @@
       <c r="AJ1" s="102"/>
       <c r="AK1" s="102"/>
     </row>
-    <row r="2" spans="1:37" ht="78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="73.25" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
         <v>16</v>
       </c>
@@ -3202,7 +3200,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="57"/>
       <c r="B3" s="57"/>
       <c r="C3" s="65"/>
@@ -3241,7 +3239,7 @@
       <c r="AJ3" s="73"/>
       <c r="AK3" s="73"/>
     </row>
-    <row r="4" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="57"/>
       <c r="B4" s="57"/>
       <c r="C4" s="65"/>
@@ -3280,7 +3278,7 @@
       <c r="AJ4" s="73"/>
       <c r="AK4" s="73"/>
     </row>
-    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="57"/>
       <c r="B5" s="57"/>
       <c r="C5" s="65"/>
@@ -3319,7 +3317,7 @@
       <c r="AJ5" s="73"/>
       <c r="AK5" s="73"/>
     </row>
-    <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="57"/>
       <c r="B6" s="57"/>
       <c r="C6" s="65"/>
@@ -3358,7 +3356,7 @@
       <c r="AJ6" s="73"/>
       <c r="AK6" s="73"/>
     </row>
-    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="57"/>
       <c r="B7" s="57"/>
       <c r="C7" s="65"/>
@@ -3397,7 +3395,7 @@
       <c r="AJ7" s="73"/>
       <c r="AK7" s="73"/>
     </row>
-    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="57"/>
       <c r="B8" s="57"/>
       <c r="C8" s="65"/>
@@ -3436,7 +3434,7 @@
       <c r="AJ8" s="73"/>
       <c r="AK8" s="73"/>
     </row>
-    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="57"/>
       <c r="B9" s="57"/>
       <c r="C9" s="65"/>
@@ -3475,7 +3473,7 @@
       <c r="AJ9" s="73"/>
       <c r="AK9" s="73"/>
     </row>
-    <row r="10" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="57"/>
       <c r="B10" s="57"/>
       <c r="C10" s="65"/>
@@ -3514,7 +3512,7 @@
       <c r="AJ10" s="73"/>
       <c r="AK10" s="73"/>
     </row>
-    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="57"/>
       <c r="B11" s="57"/>
       <c r="C11" s="65"/>
@@ -3553,7 +3551,7 @@
       <c r="AJ11" s="73"/>
       <c r="AK11" s="73"/>
     </row>
-    <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="57"/>
       <c r="B12" s="57"/>
       <c r="C12" s="65"/>
@@ -3592,7 +3590,7 @@
       <c r="AJ12" s="73"/>
       <c r="AK12" s="73"/>
     </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="57"/>
       <c r="B13" s="57"/>
       <c r="C13" s="65"/>
@@ -3631,7 +3629,7 @@
       <c r="AJ13" s="73"/>
       <c r="AK13" s="73"/>
     </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="57"/>
       <c r="B14" s="57"/>
       <c r="C14" s="65"/>
@@ -3670,7 +3668,7 @@
       <c r="AJ14" s="73"/>
       <c r="AK14" s="73"/>
     </row>
-    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="57"/>
       <c r="B15" s="57"/>
       <c r="C15" s="65"/>
@@ -3709,7 +3707,7 @@
       <c r="AJ15" s="73"/>
       <c r="AK15" s="73"/>
     </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="57"/>
       <c r="B16" s="57"/>
       <c r="C16" s="65"/>
@@ -3748,7 +3746,7 @@
       <c r="AJ16" s="73"/>
       <c r="AK16" s="73"/>
     </row>
-    <row r="17" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="57"/>
       <c r="B17" s="57"/>
       <c r="C17" s="65"/>
@@ -3787,7 +3785,7 @@
       <c r="AJ17" s="73"/>
       <c r="AK17" s="73"/>
     </row>
-    <row r="18" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="57"/>
       <c r="B18" s="57"/>
       <c r="C18" s="65"/>
@@ -3826,7 +3824,7 @@
       <c r="AJ18" s="73"/>
       <c r="AK18" s="73"/>
     </row>
-    <row r="19" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="57"/>
       <c r="B19" s="57"/>
       <c r="C19" s="65"/>
@@ -3865,7 +3863,7 @@
       <c r="AJ19" s="73"/>
       <c r="AK19" s="73"/>
     </row>
-    <row r="20" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="57"/>
       <c r="B20" s="57"/>
       <c r="C20" s="65"/>
@@ -3904,7 +3902,7 @@
       <c r="AJ20" s="73"/>
       <c r="AK20" s="73"/>
     </row>
-    <row r="21" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="57"/>
       <c r="B21" s="57"/>
       <c r="C21" s="65"/>
@@ -3943,7 +3941,7 @@
       <c r="AJ21" s="73"/>
       <c r="AK21" s="73"/>
     </row>
-    <row r="22" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="57"/>
       <c r="B22" s="57"/>
       <c r="C22" s="65"/>
@@ -3982,7 +3980,7 @@
       <c r="AJ22" s="73"/>
       <c r="AK22" s="73"/>
     </row>
-    <row r="23" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="57"/>
       <c r="B23" s="57"/>
       <c r="C23" s="65"/>
@@ -4021,7 +4019,7 @@
       <c r="AJ23" s="73"/>
       <c r="AK23" s="73"/>
     </row>
-    <row r="24" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="57"/>
       <c r="B24" s="57"/>
       <c r="C24" s="65"/>
@@ -4060,7 +4058,7 @@
       <c r="AJ24" s="73"/>
       <c r="AK24" s="73"/>
     </row>
-    <row r="25" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="57"/>
       <c r="B25" s="57"/>
       <c r="C25" s="65"/>
@@ -4099,7 +4097,7 @@
       <c r="AJ25" s="73"/>
       <c r="AK25" s="73"/>
     </row>
-    <row r="26" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="57"/>
       <c r="B26" s="57"/>
       <c r="C26" s="65"/>
@@ -4138,7 +4136,7 @@
       <c r="AJ26" s="73"/>
       <c r="AK26" s="73"/>
     </row>
-    <row r="27" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57"/>
       <c r="B27" s="57"/>
       <c r="C27" s="65"/>
@@ -4177,7 +4175,7 @@
       <c r="AJ27" s="73"/>
       <c r="AK27" s="73"/>
     </row>
-    <row r="28" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="57"/>
       <c r="B28" s="57"/>
       <c r="C28" s="65"/>
@@ -4216,7 +4214,7 @@
       <c r="AJ28" s="73"/>
       <c r="AK28" s="73"/>
     </row>
-    <row r="29" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57"/>
       <c r="B29" s="57"/>
       <c r="C29" s="65"/>
@@ -4255,7 +4253,7 @@
       <c r="AJ29" s="73"/>
       <c r="AK29" s="73"/>
     </row>
-    <row r="30" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="57"/>
       <c r="B30" s="57"/>
       <c r="C30" s="65"/>
@@ -4294,10 +4292,10 @@
       <c r="AJ30" s="73"/>
       <c r="AK30" s="73"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B33" s="85"/>
     </row>
-    <row r="34" spans="2:21" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U34" s="86" t="s">
         <v>47</v>
       </c>
@@ -4311,7 +4309,7 @@
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;R&amp;F</oddFooter>
+    <oddFooter>&amp;R&amp;F&amp;A</oddFooter>
   </headerFooter>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="20" max="29" man="1"/>
